--- a/bigfinance-master/result/zhongli/year/2015_pure.xlsx
+++ b/bigfinance-master/result/zhongli/year/2015_pure.xlsx
@@ -410,7 +410,7 @@
         <v>1.000277568854984</v>
       </c>
       <c r="C3">
-        <v>0.83333577</v>
+        <v>0.6666668245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -421,7 +421,7 @@
         <v>1.006992944378783</v>
       </c>
       <c r="C4">
-        <v>0.55555913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -432,7 +432,7 @@
         <v>0.982969807671645</v>
       </c>
       <c r="C5">
-        <v>0.37037483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -443,7 +443,7 @@
         <v>0.9805671955397968</v>
       </c>
       <c r="C6">
-        <v>0.2469186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -454,7 +454,7 @@
         <v>0.9638265105118012</v>
       </c>
       <c r="C7">
-        <v>0.24691862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -465,7 +465,7 @@
         <v>0.9656113080954599</v>
       </c>
       <c r="C8">
-        <v>0.24691861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -476,7 +476,7 @@
         <v>0.9617730979071906</v>
       </c>
       <c r="C9">
-        <v>0.24691861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -487,7 +487,7 @@
         <v>0.9958036364504614</v>
       </c>
       <c r="C10">
-        <v>0.1646146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -498,7 +498,7 @@
         <v>1.00775402027148</v>
       </c>
       <c r="C11">
-        <v>0.10974518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -509,7 +509,7 @@
         <v>0.9301093561596409</v>
       </c>
       <c r="C12">
-        <v>0.10974498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -520,7 +520,7 @@
         <v>0.9470321024796151</v>
       </c>
       <c r="C13">
-        <v>0.10974498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -531,7 +531,7 @@
         <v>0.991968410873536</v>
       </c>
       <c r="C14">
-        <v>0.10974498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -542,7 +542,7 @@
         <v>0.9978570490550721</v>
       </c>
       <c r="C15">
-        <v>0.10974498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -553,7 +553,7 @@
         <v>1.000370091806645</v>
       </c>
       <c r="C16">
-        <v>0.07316540000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -564,7 +564,7 @@
         <v>1.009747740649213</v>
       </c>
       <c r="C17">
-        <v>0.04877959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -575,7 +575,7 @@
         <v>1.000728245167914</v>
       </c>
       <c r="C18">
-        <v>0.03252262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -586,7 +586,7 @@
         <v>0.9866349104019674</v>
       </c>
       <c r="C19">
-        <v>0.02168418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -597,7 +597,7 @@
         <v>0.9736697587240191</v>
       </c>
       <c r="C20">
-        <v>0.01445872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -608,7 +608,7 @@
         <v>0.9581676874037464</v>
       </c>
       <c r="C21">
-        <v>0.009641540000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -619,7 +619,7 @@
         <v>0.9336759667156144</v>
       </c>
       <c r="C22">
-        <v>0.009641500000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -630,7 +630,7 @@
         <v>0.9565410742213148</v>
       </c>
       <c r="C23">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -641,7 +641,7 @@
         <v>0.9473544405047575</v>
       </c>
       <c r="C24">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -652,7 +652,7 @@
         <v>0.936132301851653</v>
       </c>
       <c r="C25">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -663,7 +663,7 @@
         <v>0.9180395878848656</v>
       </c>
       <c r="C26">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>0.9237730262765182</v>
       </c>
       <c r="C27">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>0.9376425151916717</v>
       </c>
       <c r="C28">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>0.9424507240667119</v>
       </c>
       <c r="C29">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>0.9471425330993398</v>
       </c>
       <c r="C30">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>0.9562187361961725</v>
       </c>
       <c r="C31">
-        <v>0.009641719999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>0.9617492210164393</v>
       </c>
       <c r="C32">
-        <v>0.00643094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>0.9690764418657402</v>
       </c>
       <c r="C33">
-        <v>0.00429041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>0.9636832491672935</v>
       </c>
       <c r="C34">
-        <v>0.00286385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>0.9844322672301613</v>
       </c>
       <c r="C35">
-        <v>0.00191224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>0.9879958931747909</v>
       </c>
       <c r="C36">
-        <v>0.00127821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>0.9957499134462711</v>
       </c>
       <c r="C37">
-        <v>0.00085578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>0.9738936045748123</v>
       </c>
       <c r="C38">
-        <v>0.00057383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>0.9788122440695773</v>
       </c>
       <c r="C39">
-        <v>0.00038582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>0.9695450258467343</v>
       </c>
       <c r="C40">
-        <v>0.00038509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>0.9673692441770233</v>
       </c>
       <c r="C41">
-        <v>0.00038504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>0.9856410348244451</v>
       </c>
       <c r="C42">
-        <v>0.000385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>0.980764179888495</v>
       </c>
       <c r="C43">
-        <v>0.000385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>0.9822057471676039</v>
       </c>
       <c r="C44">
-        <v>0.000385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>0.9996418466387308</v>
       </c>
       <c r="C45">
-        <v>0.000385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>1.006682544799016</v>
       </c>
       <c r="C46">
-        <v>0.000385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>1.029481990855151</v>
       </c>
       <c r="C47">
-        <v>0.00026209</v>
+        <v>0.6666668207999999</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>1.045464584601793</v>
       </c>
       <c r="C48">
-        <v>0.00017986</v>
+        <v>0.6666668207000001</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>1.067685016057209</v>
       </c>
       <c r="C49">
-        <v>0.00012515</v>
+        <v>0.6666668218</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>1.069168367895133</v>
       </c>
       <c r="C50">
-        <v>8.829e-05</v>
+        <v>0.6666668186</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>1.07962943065554</v>
       </c>
       <c r="C51">
-        <v>8.842e-05</v>
+        <v>1.0000001532</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>1.100644079128016</v>
       </c>
       <c r="C52">
-        <v>6.417e-05</v>
+        <v>0.666666821</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>1.101742416102575</v>
       </c>
       <c r="C53">
-        <v>6.409e-05</v>
+        <v>1.0000001535</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>1.092585628499457</v>
       </c>
       <c r="C54">
-        <v>6.365e-05</v>
+        <v>1.0000001491</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>1.098963742941394</v>
       </c>
       <c r="C55">
-        <v>6.384999999999999e-05</v>
+        <v>1.0000001511</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>1.101649893150914</v>
       </c>
       <c r="C56">
-        <v>6.382e-05</v>
+        <v>1.0000001508</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>1.13014397765123</v>
       </c>
       <c r="C57">
-        <v>4.816e-05</v>
+        <v>0.6666668233</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>1.118602485584327</v>
       </c>
       <c r="C58">
-        <v>3.742e-05</v>
+        <v>0.6666668242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>1.137223475758987</v>
       </c>
       <c r="C59">
-        <v>3.041e-05</v>
+        <v>0.6666668263</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>1.141846638730704</v>
       </c>
       <c r="C60">
-        <v>2.785e-05</v>
+        <v>0.6666668247</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>1.153232931007724</v>
       </c>
       <c r="C61">
-        <v>2.59e-05</v>
+        <v>0.6666668252</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>1.182317968554135</v>
       </c>
       <c r="C62">
-        <v>2.519e-05</v>
+        <v>0.6666668348</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>1.192295524276829</v>
       </c>
       <c r="C63">
-        <v>2.491e-05</v>
+        <v>0.6666668459</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>1.181168893186729</v>
       </c>
       <c r="C64">
-        <v>2.383e-05</v>
+        <v>0.6666668467</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>1.204084739085276</v>
       </c>
       <c r="C65">
-        <v>2.466e-05</v>
+        <v>0.6666668647</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>1.230170242231057</v>
       </c>
       <c r="C66">
-        <v>2.14e-05</v>
+        <v>1.0000001654</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>1.234303928942373</v>
       </c>
       <c r="C67">
-        <v>2.116e-05</v>
+        <v>1.000000163</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>1.218963026634672</v>
       </c>
       <c r="C68">
-        <v>2.151e-05</v>
+        <v>1.0000001665</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>1.251990735766388</v>
       </c>
       <c r="C69">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>1.279592421474876</v>
       </c>
       <c r="C70">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>1.258634480617934</v>
       </c>
       <c r="C71">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>1.281478695844227</v>
       </c>
       <c r="C72">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>1.31277831500782</v>
       </c>
       <c r="C73">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>1.317559662380765</v>
       </c>
       <c r="C74">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>1.311345701562742</v>
       </c>
       <c r="C75">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>1.351252939842174</v>
       </c>
       <c r="C76">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>1.335974714372694</v>
       </c>
       <c r="C77">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>1.336097083437795</v>
       </c>
       <c r="C78">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>1.325659897568139</v>
       </c>
       <c r="C79">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>1.337243174193856</v>
       </c>
       <c r="C80">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>1.282997863018278</v>
       </c>
       <c r="C81">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>1.262272721846161</v>
       </c>
       <c r="C82">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>1.227334861454341</v>
       </c>
       <c r="C83">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>1.25530365435813</v>
       </c>
       <c r="C84">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>1.293405202774495</v>
       </c>
       <c r="C85">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>1.313593113904707</v>
       </c>
       <c r="C86">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>1.305994293423111</v>
       </c>
       <c r="C87">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>1.306755369315808</v>
       </c>
       <c r="C88">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>1.285976505139501</v>
       </c>
       <c r="C89">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>1.278455284552845</v>
       </c>
       <c r="C90">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>1.318466984229314</v>
       </c>
       <c r="C91">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>1.327044757231713</v>
       </c>
       <c r="C92">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>1.351855831333644</v>
       </c>
       <c r="C93">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>1.390112579539893</v>
       </c>
       <c r="C94">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>1.436732208731779</v>
       </c>
       <c r="C95">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>1.465712784881153</v>
       </c>
       <c r="C96">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>1.474908372431742</v>
       </c>
       <c r="C97">
-        <v>2.186e-05</v>
+        <v>0.6666668314999999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>1.378971025393073</v>
       </c>
       <c r="C98">
-        <v>2.186e-05</v>
+        <v>1.000000155</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>1.376425151916717</v>
       </c>
       <c r="C99">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>1.441191218079582</v>
       </c>
       <c r="C100">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>1.465602354261428</v>
       </c>
       <c r="C101">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>1.465438200637513</v>
       </c>
       <c r="C102">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>1.47651707794611</v>
       </c>
       <c r="C103">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>1.499200124159832</v>
       </c>
       <c r="C104">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>1.531666726358894</v>
       </c>
       <c r="C105">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>1.526189964542817</v>
       </c>
       <c r="C106">
-        <v>2.186e-05</v>
+        <v>0.6666668365</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>1.523954490646228</v>
       </c>
       <c r="C107">
-        <v>2.186e-05</v>
+        <v>0.6666668335</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>1.528595561286009</v>
       </c>
       <c r="C108">
-        <v>2.186e-05</v>
+        <v>0.6666668314999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>1.541954681661354</v>
       </c>
       <c r="C109">
-        <v>2.186e-05</v>
+        <v>1.0000001651</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>1.511105738810692</v>
       </c>
       <c r="C110">
-        <v>2.186e-05</v>
+        <v>1.0000001592</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>1.458707902056994</v>
       </c>
       <c r="C111">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>1.482725069541444</v>
       </c>
       <c r="C112">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>1.428243974069697</v>
       </c>
       <c r="C113">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>1.336616405811635</v>
       </c>
       <c r="C114">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>1.365904396929432</v>
       </c>
       <c r="C115">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>1.399827489464322</v>
       </c>
       <c r="C116">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>1.351366355073242</v>
       </c>
       <c r="C117">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>1.251408736554326</v>
       </c>
       <c r="C118">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>1.209671931521077</v>
       </c>
       <c r="C119">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>1.276583933240214</v>
       </c>
       <c r="C120">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>1.209871900481119</v>
       </c>
       <c r="C121">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>1.167809772811385</v>
       </c>
       <c r="C122">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>1.100402325609159</v>
       </c>
       <c r="C123">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>1.126962381958621</v>
       </c>
       <c r="C124">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>1.112400463211681</v>
       </c>
       <c r="C125">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>1.046759905925051</v>
       </c>
       <c r="C126">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>1.107090839630863</v>
       </c>
       <c r="C127">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>1.157372586941728</v>
       </c>
       <c r="C128">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>1.185007103374998</v>
       </c>
       <c r="C129">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>1.171307737306448</v>
       </c>
       <c r="C130">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>1.135853539152132</v>
       </c>
       <c r="C131">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>1.141070639781288</v>
       </c>
       <c r="C132">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>1.181115170182539</v>
       </c>
       <c r="C133">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>1.191489679213973</v>
       </c>
       <c r="C134">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>1.199118345809009</v>
       </c>
       <c r="C135">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>1.201616465503862</v>
       </c>
       <c r="C136">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>1.230829841338061</v>
       </c>
       <c r="C137">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>1.21500841660399</v>
       </c>
       <c r="C138">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>1.111934863842031</v>
       </c>
       <c r="C139">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>1.093263135274525</v>
       </c>
       <c r="C140">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>1.130919976600647</v>
       </c>
       <c r="C141">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>1.106028317992431</v>
       </c>
       <c r="C142">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>1.09348101190263</v>
       </c>
       <c r="C143">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>1.081297828396786</v>
       </c>
       <c r="C144">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>1.121181189785466</v>
       </c>
       <c r="C145">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>1.102685553287251</v>
       </c>
       <c r="C146">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>1.092827382018314</v>
       </c>
       <c r="C147">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>1.11749817938708</v>
       </c>
       <c r="C148">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>1.172480689564605</v>
       </c>
       <c r="C149">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>1.172328474386065</v>
       </c>
       <c r="C150">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>1.15991547580674</v>
       </c>
       <c r="C151">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>1.180282463617588</v>
       </c>
       <c r="C152">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>1.18349689003498</v>
       </c>
       <c r="C153">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>1.191955278583623</v>
       </c>
       <c r="C154">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>1.118680085479269</v>
       </c>
       <c r="C155">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>1.132394374604539</v>
       </c>
       <c r="C156">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>1.093648150137889</v>
       </c>
       <c r="C157">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>1.046924059548966</v>
       </c>
       <c r="C158">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>0.9580333798932703</v>
       </c>
       <c r="C159">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>0.8849283096355192</v>
       </c>
       <c r="C160">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>0.8736822940916634</v>
       </c>
       <c r="C161">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>0.9203317693969891</v>
       </c>
       <c r="C162">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>0.9647308477490061</v>
       </c>
       <c r="C163">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>0.9568634122464572</v>
       </c>
       <c r="C164">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>0.9451129973854804</v>
       </c>
       <c r="C165">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>0.9431879230686581</v>
       </c>
       <c r="C166">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>0.9193856476009694</v>
       </c>
       <c r="C167">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>0.9462561035301983</v>
       </c>
       <c r="C168">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>0.9679363203323663</v>
       </c>
       <c r="C169">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>0.9544458770578895</v>
       </c>
       <c r="C170">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>0.9551442761123646</v>
       </c>
       <c r="C171">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>0.9296467414013347</v>
       </c>
       <c r="C172">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>0.8969264472380407</v>
       </c>
       <c r="C173">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>0.9408270954956246</v>
       </c>
       <c r="C174">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>0.921068968398935</v>
       </c>
       <c r="C175">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>0.9246087174528134</v>
       </c>
       <c r="C176">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>0.9421045091508183</v>
       </c>
       <c r="C177">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>0.950783758938911</v>
       </c>
       <c r="C178">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>0.929972064037821</v>
       </c>
       <c r="C179">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>0.9379708224395019</v>
       </c>
       <c r="C180">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>0.922946288934255</v>
       </c>
       <c r="C181">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>0.925456347074484</v>
       </c>
       <c r="C182">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>0.9067667108389145</v>
       </c>
       <c r="C183">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>0.9111361818464</v>
       </c>
       <c r="C184">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>0.938170791399544</v>
       </c>
       <c r="C185">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>0.9500465599369651</v>
       </c>
       <c r="C186">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>0.9812387330921767</v>
       </c>
       <c r="C187">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>0.982901161610735</v>
       </c>
       <c r="C188">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>0.9737115432828337</v>
       </c>
       <c r="C189">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>0.9962841588768311</v>
       </c>
       <c r="C190">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>1.012186168117188</v>
       </c>
       <c r="C191">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>1.010798323842269</v>
       </c>
       <c r="C192">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>1.022327877463797</v>
       </c>
       <c r="C193">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>0.9910939197497701</v>
       </c>
       <c r="C194">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>1.005437961868605</v>
       </c>
       <c r="C195">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>1.018477728830152</v>
       </c>
       <c r="C196">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>1.023596337284959</v>
       </c>
       <c r="C197">
-        <v>2.186e-05</v>
+        <v>0.6666667818999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>1.02501701228466</v>
       </c>
       <c r="C198">
-        <v>2.186e-05</v>
+        <v>0.6666667815</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>1.007366020796772</v>
       </c>
       <c r="C199">
-        <v>2.186e-05</v>
+        <v>1.0000001127</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>1.010983369745592</v>
       </c>
       <c r="C200">
-        <v>2.186e-05</v>
+        <v>1.0000001127</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>1.00956269474589</v>
       </c>
       <c r="C201">
-        <v>2.186e-05</v>
+        <v>1.0000001136</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>0.9924071487410909</v>
       </c>
       <c r="C202">
-        <v>2.186e-05</v>
+        <v>1.0000001114</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>0.9899060444348936</v>
       </c>
       <c r="C203">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>1.032568078984755</v>
       </c>
       <c r="C204">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>1.051424853455583</v>
       </c>
       <c r="C205">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>1.071484426298007</v>
       </c>
       <c r="C206">
-        <v>2.186e-05</v>
+        <v>0.6666667906</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>1.08845194178814</v>
       </c>
       <c r="C207">
-        <v>2.186e-05</v>
+        <v>0.6666667961</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>1.086544775139381</v>
       </c>
       <c r="C208">
-        <v>2.186e-05</v>
+        <v>0.6666667942</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>1.089457755811038</v>
       </c>
       <c r="C209">
-        <v>2.186e-05</v>
+        <v>0.6666667922</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>1.084279455129353</v>
       </c>
       <c r="C210">
-        <v>2.186e-05</v>
+        <v>0.6666667907</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>1.068741568472954</v>
       </c>
       <c r="C211">
-        <v>2.186e-05</v>
+        <v>1.0000001224</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>1.076537373303248</v>
       </c>
       <c r="C212">
-        <v>2.186e-05</v>
+        <v>1.0000001234</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>1.075892697252964</v>
       </c>
       <c r="C213">
-        <v>2.186e-05</v>
+        <v>1.000000125</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>1.065049604240536</v>
       </c>
       <c r="C214">
-        <v>2.186e-05</v>
+        <v>0.6666667909</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>1.079551830760598</v>
       </c>
       <c r="C215">
-        <v>2.186e-05</v>
+        <v>0.6666667917</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>1.083563148406814</v>
       </c>
       <c r="C216">
-        <v>2.186e-05</v>
+        <v>0.6666667922</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>1.077537218103459</v>
       </c>
       <c r="C217">
-        <v>2.186e-05</v>
+        <v>1.0000001245</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>1.079268292682927</v>
       </c>
       <c r="C218">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>1.088765325979251</v>
       </c>
       <c r="C219">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>1.085070377135489</v>
       </c>
       <c r="C220">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>1.025601996108067</v>
       </c>
       <c r="C221">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>1.028317992431026</v>
       </c>
       <c r="C222">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>1.031574203407232</v>
       </c>
       <c r="C223">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>1.055630170839153</v>
       </c>
       <c r="C224">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>1.06992944378783</v>
       </c>
       <c r="C225">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>1.052072514117212</v>
       </c>
       <c r="C226">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>1.055636140061841</v>
       </c>
       <c r="C227">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>1.035681028616454</v>
       </c>
       <c r="C228">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>1.03638838150496</v>
       </c>
       <c r="C229">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>1.031332449888376</v>
       </c>
       <c r="C230">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>1.025088642956914</v>
       </c>
       <c r="C231">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>1.050783162016642</v>
       </c>
       <c r="C232">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>1.047703043109726</v>
       </c>
       <c r="C233">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>1.04944605613457</v>
       </c>
       <c r="C234">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>1.068490861120065</v>
       </c>
       <c r="C235">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>1.068180461540298</v>
       </c>
       <c r="C236">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>1.087135728185476</v>
       </c>
       <c r="C237">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>1.089911416735313</v>
       </c>
       <c r="C238">
-        <v>2.186e-05</v>
+        <v>0.666666791</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>1.085231546148061</v>
       </c>
       <c r="C239">
-        <v>2.186e-05</v>
+        <v>0.6666667915</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>1.078187863376431</v>
       </c>
       <c r="C240">
-        <v>2.186e-05</v>
+        <v>0.6666667901</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>1.082790134068742</v>
       </c>
       <c r="C241">
-        <v>2.186e-05</v>
+        <v>1.0000001241</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>1.054695987488509</v>
       </c>
       <c r="C242">
-        <v>2.186e-05</v>
+        <v>1.0000001198</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>1.063637883074866</v>
       </c>
       <c r="C243">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>1.066365817843201</v>
       </c>
       <c r="C244">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>1.056307677614221</v>
       </c>
       <c r="C245">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>0.9838054988479401</v>
       </c>
       <c r="C246">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>0.9812536561488963</v>
       </c>
       <c r="C247">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>1.003378580041307</v>
       </c>
       <c r="C248">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>0.9326910449721237</v>
       </c>
       <c r="C249">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>0.9510195432350799</v>
       </c>
       <c r="C250">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>0.9003677041175697</v>
       </c>
       <c r="C251">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>0.9022062247054189</v>
       </c>
       <c r="C252">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>0.8803409619999284</v>
       </c>
       <c r="C253">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>0.8976666308513306</v>
       </c>
       <c r="C254">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>0.8658267970344901</v>
       </c>
       <c r="C255">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>0.8696679918341034</v>
       </c>
       <c r="C256">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>0.8976934923534257</v>
       </c>
       <c r="C257">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>0.8884262741305827</v>
       </c>
       <c r="C258">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>0.859711328390817</v>
       </c>
       <c r="C259">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>0.870479806119647</v>
       </c>
       <c r="C260">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>0.8770310280195314</v>
       </c>
       <c r="C261">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>0.8207054427372468</v>
       </c>
       <c r="C262">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>0.8164583407948617</v>
       </c>
       <c r="C263">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>0.7926112961570144</v>
       </c>
       <c r="C264">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>0.8170672015090195</v>
       </c>
       <c r="C265">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>0.8025172212074544</v>
       </c>
       <c r="C266">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>0.8206397812876808</v>
       </c>
       <c r="C267">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>0.8175596623807648</v>
       </c>
       <c r="C268">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>0.8300263839642802</v>
       </c>
       <c r="C269">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>0.8247943602784045</v>
       </c>
       <c r="C270">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>0.8196339672647828</v>
       </c>
       <c r="C271">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>0.8466058999797047</v>
       </c>
       <c r="C272">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>0.8557895490849182</v>
       </c>
       <c r="C273">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>0.8544613970368778</v>
       </c>
       <c r="C274">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>0.8536048135811755</v>
       </c>
       <c r="C275">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>0.8736494633668803</v>
       </c>
       <c r="C276">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>0.8665311653116531</v>
       </c>
       <c r="C277">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>0.8741628165180331</v>
       </c>
       <c r="C278">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>0.818156584649547</v>
       </c>
       <c r="C279">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>0.8259046356983394</v>
       </c>
       <c r="C280">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>0.8022575600205342</v>
       </c>
       <c r="C281">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>0.815745018683667</v>
       </c>
       <c r="C282">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>0.8505187254515717</v>
       </c>
       <c r="C283">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>0.8535272136862339</v>
       </c>
       <c r="C284">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>0.8578220694101214</v>
       </c>
       <c r="C285">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>0.8647433831166506</v>
       </c>
       <c r="C286">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>0.8659521507109343</v>
       </c>
       <c r="C287">
-        <v>2.186e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>0.8543629048625287</v>
       </c>
       <c r="C288">
-        <v>1.617e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>0.8371028974606927</v>
       </c>
       <c r="C289">
-        <v>1.596e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>0.8387683105905949</v>
       </c>
       <c r="C290">
-        <v>1.593e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>0.8534496137912921</v>
       </c>
       <c r="C291">
-        <v>1.606e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>0.8549031195157766</v>
       </c>
       <c r="C292">
-        <v>1.606e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>0.8567117939901866</v>
       </c>
       <c r="C293">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>0.8669788570132397</v>
       </c>
       <c r="C294">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>0.8819974212957989</v>
       </c>
       <c r="C295">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>0.9009944724997911</v>
       </c>
       <c r="C296">
-        <v>1.595e-05</v>
+        <v>0.6666667747</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>0.8951923880472286</v>
       </c>
       <c r="C297">
-        <v>1.595e-05</v>
+        <v>0.6666667739</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>0.8983560760717739</v>
       </c>
       <c r="C298">
-        <v>1.595e-05</v>
+        <v>0.6666667737</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>0.8837344650979548</v>
       </c>
       <c r="C299">
-        <v>1.595e-05</v>
+        <v>1.0000001052</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>0.8892440576388142</v>
       </c>
       <c r="C300">
-        <v>1.595e-05</v>
+        <v>1.0000001059</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>0.8827943125246231</v>
       </c>
       <c r="C301">
-        <v>1.595e-05</v>
+        <v>1.0000001048</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>0.8714557740291059</v>
       </c>
       <c r="C302">
-        <v>1.595e-05</v>
+        <v>1.0000001043</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>0.8955774029105931</v>
       </c>
       <c r="C303">
-        <v>1.595e-05</v>
+        <v>1.000000107</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>0.8965533708200518</v>
       </c>
       <c r="C304">
-        <v>1.595e-05</v>
+        <v>0.6666667731</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>0.8982277377839858</v>
       </c>
       <c r="C305">
-        <v>1.595e-05</v>
+        <v>0.6666667733</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>0.9112227355753735</v>
       </c>
       <c r="C306">
-        <v>1.595e-05</v>
+        <v>0.6666667737</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>0.9104825519620835</v>
       </c>
       <c r="C307">
-        <v>1.595e-05</v>
+        <v>0.6666667739</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>0.8978964459248117</v>
       </c>
       <c r="C308">
-        <v>1.595e-05</v>
+        <v>1.0000001059</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>0.8908945477119969</v>
       </c>
       <c r="C309">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>0.9055191432971599</v>
       </c>
       <c r="C310">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>0.9024420090015879</v>
       </c>
       <c r="C311">
-        <v>1.595e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>0.9152728531690603</v>
       </c>
       <c r="C312">
-        <v>1.646e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>0.9199646622016882</v>
       </c>
       <c r="C313">
-        <v>1.468e-05</v>
+        <v>0.6666667751000001</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>0.9186991869918699</v>
       </c>
       <c r="C314">
-        <v>1.302e-05</v>
+        <v>0.6666667755</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>0.9054296049568424</v>
       </c>
       <c r="C315">
-        <v>1.168e-05</v>
+        <v>0.666666774</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>0.9081635089478649</v>
       </c>
       <c r="C316">
-        <v>1.166e-05</v>
+        <v>1.0000001077</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>0.8871995988682354</v>
       </c>
       <c r="C317">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>0.881322899132075</v>
       </c>
       <c r="C318">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>0.8832181273354583</v>
       </c>
       <c r="C319">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>0.8794664708761626</v>
       </c>
       <c r="C320">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>0.8848477251292336</v>
       </c>
       <c r="C321">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>0.8815556988169001</v>
       </c>
       <c r="C322">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>0.8791441328510202</v>
       </c>
       <c r="C323">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>0.876974320403997</v>
       </c>
       <c r="C324">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>0.8931867292241205</v>
       </c>
       <c r="C325">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>0.8927778374700046</v>
       </c>
       <c r="C326">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>0.8947387271229541</v>
       </c>
       <c r="C327">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>0.8694918997648127</v>
       </c>
       <c r="C328">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>0.8452747633203205</v>
       </c>
       <c r="C329">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>0.8454180246648282</v>
       </c>
       <c r="C330">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>0.8467461767128684</v>
       </c>
       <c r="C331">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>0.846393992574287</v>
       </c>
       <c r="C332">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>0.8437824576483651</v>
       </c>
       <c r="C333">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>0.8508709095901532</v>
       </c>
       <c r="C334">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>0.8487279586452252</v>
       </c>
       <c r="C335">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>0.8379326194143</v>
       </c>
       <c r="C336">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>0.8377535427336652</v>
       </c>
       <c r="C337">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>0.8432959659993076</v>
       </c>
       <c r="C338">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>0.8487190048111936</v>
       </c>
       <c r="C339">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>0.8421588290772776</v>
       </c>
       <c r="C340">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>0.8401949548129843</v>
       </c>
       <c r="C341">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>0.8423886441507588</v>
       </c>
       <c r="C342">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>0.8419737831739551</v>
       </c>
       <c r="C343">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>0.8423916287621025</v>
       </c>
       <c r="C344">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>0.8704977137877106</v>
       </c>
       <c r="C345">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>0.8695694996597544</v>
       </c>
       <c r="C346">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>0.8730674641548177</v>
       </c>
       <c r="C347">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>0.8770817664123778</v>
       </c>
       <c r="C348">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>0.8757148144168666</v>
       </c>
       <c r="C349">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>0.8762938290175853</v>
       </c>
       <c r="C350">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>0.8736434941441925</v>
       </c>
       <c r="C351">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>0.8455612860093359</v>
       </c>
       <c r="C352">
-        <v>1.138e-05</v>
+        <v>1.0000001033</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>0.8482832515549825</v>
       </c>
       <c r="C353">
-        <v>1.138e-05</v>
+        <v>1.000000104</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>0.8617199718252689</v>
       </c>
       <c r="C354">
-        <v>1.138e-05</v>
+        <v>1.0000001044</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>0.8574251161013813</v>
       </c>
       <c r="C355">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>0.8610932034430477</v>
       </c>
       <c r="C356">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>0.8621975096402946</v>
       </c>
       <c r="C357">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>0.8591382830127861</v>
       </c>
       <c r="C358">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>0.8671937490300013</v>
       </c>
       <c r="C359">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>0.8631376622136265</v>
       </c>
       <c r="C360">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>0.8518946312811145</v>
       </c>
       <c r="C361">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>0.8642539068562491</v>
       </c>
       <c r="C362">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>0.8692859615820828</v>
       </c>
       <c r="C363">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>0.8749656769695451</v>
       </c>
       <c r="C364">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>0.8743747239234507</v>
       </c>
       <c r="C365">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>0.8752313073791531</v>
       </c>
       <c r="C366">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>0.8919809462411804</v>
       </c>
       <c r="C367">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>0.8972905698219977</v>
       </c>
       <c r="C368">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>0.9005437961868605</v>
       </c>
       <c r="C369">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>0.9004124732877284</v>
       </c>
       <c r="C370">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>0.891828731062641</v>
       </c>
       <c r="C371">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>0.8938672206105321</v>
       </c>
       <c r="C372">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>0.9101214139894703</v>
       </c>
       <c r="C373">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>0.9134970094194335</v>
       </c>
       <c r="C374">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>0.9115062736530449</v>
       </c>
       <c r="C375">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>0.9115898427706745</v>
       </c>
       <c r="C376">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>0.9083843701873142</v>
       </c>
       <c r="C377">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>0.9063070806919523</v>
       </c>
       <c r="C378">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>0.90371046882275</v>
       </c>
       <c r="C379">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>0.9070263720258349</v>
       </c>
       <c r="C380">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4568,7 +4568,7 @@
         <v>0.8992096749161325</v>
       </c>
       <c r="C381">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4579,7 +4579,7 @@
         <v>0.9001080429306495</v>
       </c>
       <c r="C382">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>0.9103571982856393</v>
       </c>
       <c r="C383">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4601,7 +4601,7 @@
         <v>0.8929957140981102</v>
       </c>
       <c r="C384">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4612,7 +4612,7 @@
         <v>0.8936881439298975</v>
       </c>
       <c r="C385">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>0.8892171961367191</v>
       </c>
       <c r="C386">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>0.8814721296992706</v>
       </c>
       <c r="C387">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4645,7 +4645,7 @@
         <v>0.8868115993935271</v>
       </c>
       <c r="C388">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4656,7 +4656,7 @@
         <v>0.8889545503384549</v>
       </c>
       <c r="C389">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4667,7 +4667,7 @@
         <v>0.8901394410419875</v>
       </c>
       <c r="C390">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4678,7 +4678,7 @@
         <v>0.8884292587419266</v>
       </c>
       <c r="C391">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4689,7 +4689,7 @@
         <v>0.8966608168284327</v>
       </c>
       <c r="C392">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4700,7 +4700,7 @@
         <v>0.9030478851044017</v>
       </c>
       <c r="C393">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4711,7 +4711,7 @@
         <v>0.9009795494430716</v>
       </c>
       <c r="C394">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4722,7 +4722,7 @@
         <v>0.8961713405680312</v>
       </c>
       <c r="C395">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4733,7 +4733,7 @@
         <v>0.9105064288528348</v>
       </c>
       <c r="C396">
-        <v>1.138e-05</v>
+        <v>0.6666667617000001</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4744,7 +4744,7 @@
         <v>0.9327507371990019</v>
       </c>
       <c r="C397">
-        <v>1.138e-05</v>
+        <v>0.6666667635</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4755,7 +4755,7 @@
         <v>0.9282260664016332</v>
       </c>
       <c r="C398">
-        <v>1.138e-05</v>
+        <v>0.6666667619</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4766,7 +4766,7 @@
         <v>0.9280798204457816</v>
       </c>
       <c r="C399">
-        <v>1.138e-05</v>
+        <v>0.6666667622</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4777,7 +4777,7 @@
         <v>0.9264561918746941</v>
       </c>
       <c r="C400">
-        <v>1.138e-05</v>
+        <v>1.000000095</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4788,7 +4788,7 @@
         <v>0.9276470518009144</v>
       </c>
       <c r="C401">
-        <v>1.138e-05</v>
+        <v>1.0000000951</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4799,7 +4799,7 @@
         <v>0.9206958919809463</v>
       </c>
       <c r="C402">
-        <v>1.138e-05</v>
+        <v>1.000000094</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4810,7 +4810,7 @@
         <v>0.9221583515394626</v>
       </c>
       <c r="C403">
-        <v>1.138e-05</v>
+        <v>1.000000094</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4821,7 +4821,7 @@
         <v>0.9210152453947448</v>
       </c>
       <c r="C404">
-        <v>1.138e-05</v>
+        <v>1.0000000943</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4832,7 +4832,7 @@
         <v>0.9157772524861812</v>
       </c>
       <c r="C405">
-        <v>1.138e-05</v>
+        <v>1.0000000944</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4843,7 +4843,7 @@
         <v>0.9163682055322756</v>
       </c>
       <c r="C406">
-        <v>1.138e-05</v>
+        <v>0.6666667612</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4854,7 +4854,7 @@
         <v>0.9162846364146462</v>
       </c>
       <c r="C407">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4865,7 +4865,7 @@
         <v>0.9176724806895645</v>
       </c>
       <c r="C408">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4876,7 +4876,7 @@
         <v>0.9208988455523321</v>
       </c>
       <c r="C409">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4887,7 +4887,7 @@
         <v>0.914278977591538</v>
       </c>
       <c r="C410">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4898,7 +4898,7 @@
         <v>0.9154847605744779</v>
       </c>
       <c r="C411">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4909,7 +4909,7 @@
         <v>0.9169024509628356</v>
       </c>
       <c r="C412">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4920,7 +4920,7 @@
         <v>0.9224568126738536</v>
       </c>
       <c r="C413">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4931,7 +4931,7 @@
         <v>0.9228209352578107</v>
       </c>
       <c r="C414">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -4942,7 +4942,7 @@
         <v>0.9240207490180629</v>
       </c>
       <c r="C415">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>0.9189170636199754</v>
       </c>
       <c r="C416">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -4964,7 +4964,7 @@
         <v>0.9019435789071547</v>
       </c>
       <c r="C417">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -4975,7 +4975,7 @@
         <v>0.9024002244427731</v>
       </c>
       <c r="C418">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -4986,7 +4986,7 @@
         <v>0.8962340174062533</v>
       </c>
       <c r="C419">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -4997,7 +4997,7 @@
         <v>0.9031583157241264</v>
       </c>
       <c r="C420">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5008,7 +5008,7 @@
         <v>0.9022480092642337</v>
       </c>
       <c r="C421">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5019,7 +5019,7 @@
         <v>0.9031045927199359</v>
       </c>
       <c r="C422">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>0.9080112937693253</v>
       </c>
       <c r="C423">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>0.9055012356290965</v>
       </c>
       <c r="C424">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>0.8895425187732053</v>
       </c>
       <c r="C425">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>0.8948372192973031</v>
       </c>
       <c r="C426">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>0.8917600850017311</v>
       </c>
       <c r="C427">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>0.8949297422489644</v>
       </c>
       <c r="C428">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>0.8967861705048769</v>
       </c>
       <c r="C429">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>0.9097513221828253</v>
       </c>
       <c r="C430">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>0.9148579921922567</v>
       </c>
       <c r="C431">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>0.912843379535117</v>
       </c>
       <c r="C432">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>0.9136939937681315</v>
       </c>
       <c r="C433">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>0.9144282081587336</v>
       </c>
       <c r="C434">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>0.9076710480761195</v>
       </c>
       <c r="C435">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>0.9204183231259626</v>
       </c>
       <c r="C436">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5184,7 +5184,7 @@
         <v>0.920669030478851</v>
       </c>
       <c r="C437">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>0.9205914305839094</v>
       </c>
       <c r="C438">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>0.9225254587347635</v>
       </c>
       <c r="C439">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>0.9336610436588948</v>
       </c>
       <c r="C440">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>0.9347623652447978</v>
       </c>
       <c r="C441">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>0.9300974177142652</v>
       </c>
       <c r="C442">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>0.9289155116220765</v>
       </c>
       <c r="C443">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>0.9265039456561966</v>
       </c>
       <c r="C444">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>0.9253757625681983</v>
       </c>
       <c r="C445">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>0.9319269844680826</v>
       </c>
       <c r="C446">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>0.9260443155092344</v>
       </c>
       <c r="C447">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>0.9338669818416246</v>
       </c>
       <c r="C448">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>0.9327865525351289</v>
       </c>
       <c r="C449">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>0.9351772262216014</v>
       </c>
       <c r="C450">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>0.9395228203383356</v>
       </c>
       <c r="C451">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5349,7 +5349,7 @@
         <v>0.9336968589950216</v>
       </c>
       <c r="C452">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>0.946503826271743</v>
       </c>
       <c r="C453">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>0.953893723959266</v>
       </c>
       <c r="C454">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>0.9581706720150902</v>
       </c>
       <c r="C455">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>0.9571618733808482</v>
       </c>
       <c r="C456">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>0.9565858433914736</v>
       </c>
       <c r="C457">
-        <v>1.138e-05</v>
+        <v>0.6666667590000001</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>0.9575976266370593</v>
       </c>
       <c r="C458">
-        <v>1.138e-05</v>
+        <v>0.6666667588</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>0.9529446175519024</v>
       </c>
       <c r="C459">
-        <v>1.138e-05</v>
+        <v>1.0000000918</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>0.9604926996406529</v>
       </c>
       <c r="C460">
-        <v>1.138e-05</v>
+        <v>0.6666667591</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>0.9695062258992634</v>
       </c>
       <c r="C461">
-        <v>1.138e-05</v>
+        <v>0.6666667603</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>0.9673543211203037</v>
       </c>
       <c r="C462">
-        <v>1.138e-05</v>
+        <v>0.6666667612</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>0.9675333978009383</v>
       </c>
       <c r="C463">
-        <v>1.138e-05</v>
+        <v>0.6666667614</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>0.9735623127156382</v>
       </c>
       <c r="C464">
-        <v>1.138e-05</v>
+        <v>0.6666667629</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>0.9780571373995678</v>
       </c>
       <c r="C465">
-        <v>1.138e-05</v>
+        <v>0.6666667630000001</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>0.979824027315163</v>
       </c>
       <c r="C466">
-        <v>1.138e-05</v>
+        <v>0.6666667629</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>0.9700076406050405</v>
       </c>
       <c r="C467">
-        <v>1.138e-05</v>
+        <v>0.6666667622</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>0.9769558158136648</v>
       </c>
       <c r="C468">
-        <v>1.138e-05</v>
+        <v>1.000000096</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>0.9681601661831597</v>
       </c>
       <c r="C469">
-        <v>1.138e-05</v>
+        <v>1.0000000955</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>0.9564813819944367</v>
       </c>
       <c r="C470">
-        <v>1.138e-05</v>
+        <v>1.0000000946</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>0.9549711686544179</v>
       </c>
       <c r="C471">
-        <v>1.138e-05</v>
+        <v>1.0000000949</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>0.9617134056803123</v>
       </c>
       <c r="C472">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>0.9596629776870456</v>
       </c>
       <c r="C473">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>0.9648890321502335</v>
       </c>
       <c r="C474">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>0.9410390029010421</v>
       </c>
       <c r="C475">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>0.9416568174492318</v>
       </c>
       <c r="C476">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5624,7 +5624,7 @@
         <v>0.9373261463892173</v>
       </c>
       <c r="C477">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>0.930506309468381</v>
       </c>
       <c r="C478">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>0.9320881534806538</v>
       </c>
       <c r="C479">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>0.9306256939221375</v>
       </c>
       <c r="C480">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>0.9260890846793931</v>
       </c>
       <c r="C481">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>0.9364009168726048</v>
       </c>
       <c r="C482">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>0.9370366390888578</v>
       </c>
       <c r="C483">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>0.9282588971264162</v>
       </c>
       <c r="C484">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>0.9319657844155534</v>
       </c>
       <c r="C485">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>0.92960495684252</v>
       </c>
       <c r="C486">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>0.9258980695533827</v>
       </c>
       <c r="C487">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>0.9240655181882215</v>
       </c>
       <c r="C488">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>0.9263159151415302</v>
       </c>
       <c r="C489">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>0.9359502405596744</v>
       </c>
       <c r="C490">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>0.9427760467031983</v>
       </c>
       <c r="C491">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>0.9447518594128672</v>
       </c>
       <c r="C492">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>0.9414419254324702</v>
       </c>
       <c r="C493">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>0.9464918878263672</v>
       </c>
       <c r="C494">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>0.9436356147702446</v>
       </c>
       <c r="C495">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>0.936197963301219</v>
       </c>
       <c r="C496">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>0.9309868318947506</v>
       </c>
       <c r="C497">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>0.929037880687177</v>
       </c>
       <c r="C498">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>0.9262532383033081</v>
       </c>
       <c r="C499">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>0.9278470207609565</v>
       </c>
       <c r="C500">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>0.9291124959707747</v>
       </c>
       <c r="C501">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>0.9256175160870552</v>
       </c>
       <c r="C502">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>0.9321359072621563</v>
       </c>
       <c r="C503">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>0.9362039325239068</v>
       </c>
       <c r="C504">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>0.9379290378806873</v>
       </c>
       <c r="C505">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>0.9400182658214248</v>
       </c>
       <c r="C506">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>0.9428894619342669</v>
       </c>
       <c r="C507">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>0.9372187003808364</v>
       </c>
       <c r="C508">
-        <v>1.138e-05</v>
+        <v>0.6666667593</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>0.9422358320499504</v>
       </c>
       <c r="C509">
-        <v>1.138e-05</v>
+        <v>0.6666667598</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>0.9410748182371692</v>
       </c>
       <c r="C510">
-        <v>1.138e-05</v>
+        <v>0.6666667597</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>0.9452204433938612</v>
       </c>
       <c r="C511">
-        <v>1.138e-05</v>
+        <v>1.000000093</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>0.9500555137709967</v>
       </c>
       <c r="C512">
-        <v>1.138e-05</v>
+        <v>0.6666667598</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>0.9540907083079641</v>
       </c>
       <c r="C513">
-        <v>1.138e-05</v>
+        <v>0.66666676</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>0.9601017155546006</v>
       </c>
       <c r="C514">
-        <v>1.138e-05</v>
+        <v>0.6666667608</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>0.9604270381910868</v>
       </c>
       <c r="C515">
-        <v>1.138e-05</v>
+        <v>0.6666667607</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>0.9589526401871947</v>
       </c>
       <c r="C516">
-        <v>1.138e-05</v>
+        <v>0.6666667612</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>0.9639160488521185</v>
       </c>
       <c r="C517">
-        <v>1.138e-05</v>
+        <v>0.6666667613</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>0.9556964292109881</v>
       </c>
       <c r="C518">
-        <v>1.138e-05</v>
+        <v>1.0000000939</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>0.9670021369817222</v>
       </c>
       <c r="C519">
-        <v>1.138e-05</v>
+        <v>0.6666667623</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>0.9709925623485309</v>
       </c>
       <c r="C520">
-        <v>1.138e-05</v>
+        <v>0.6666667624</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>0.9733474206988766</v>
       </c>
       <c r="C521">
-        <v>1.138e-05</v>
+        <v>0.6666667624</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>0.9704105631364685</v>
       </c>
       <c r="C522">
-        <v>1.138e-05</v>
+        <v>0.6666667618</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>0.9710224084619701</v>
       </c>
       <c r="C523">
-        <v>1.138e-05</v>
+        <v>1.000000095</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>0.963629526163103</v>
       </c>
       <c r="C524">
-        <v>1.138e-05</v>
+        <v>1.0000000943</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>0.9675304131895944</v>
       </c>
       <c r="C525">
-        <v>1.138e-05</v>
+        <v>1.0000000948</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>0.9690824110884281</v>
       </c>
       <c r="C526">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>0.9640384179172189</v>
       </c>
       <c r="C527">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>0.9605404534221553</v>
       </c>
       <c r="C528">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>0.9651845086732805</v>
       </c>
       <c r="C529">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>0.9677333667609803</v>
       </c>
       <c r="C530">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>0.9672110597757959</v>
       </c>
       <c r="C531">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>0.9600748540525053</v>
       </c>
       <c r="C532">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>0.958883994126285</v>
       </c>
       <c r="C533">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>0.9661246612466124</v>
       </c>
       <c r="C534">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>0.9668141064670558</v>
       </c>
       <c r="C535">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>0.9675393670236263</v>
       </c>
       <c r="C536">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>0.9756515406563757</v>
       </c>
       <c r="C537">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6295,7 +6295,7 @@
         <v>0.9662529995344006</v>
       </c>
       <c r="C538">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>0.9702404402898654</v>
       </c>
       <c r="C539">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>0.9734638205412891</v>
       </c>
       <c r="C540">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>0.9685720425486193</v>
       </c>
       <c r="C541">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>0.9695659181261417</v>
       </c>
       <c r="C542">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>0.9758037558349151</v>
       </c>
       <c r="C543">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>0.9750605876102814</v>
       </c>
       <c r="C544">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>0.9708791471174623</v>
       </c>
       <c r="C545">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>0.9674050595131501</v>
       </c>
       <c r="C546">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>0.9581318720676193</v>
       </c>
       <c r="C547">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>0.9617939901865979</v>
       </c>
       <c r="C548">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>0.9760604324104915</v>
       </c>
       <c r="C549">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>0.9792509819371321</v>
       </c>
       <c r="C550">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>0.9809283335124099</v>
       </c>
       <c r="C551">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>0.9757858481668517</v>
       </c>
       <c r="C552">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>0.981629717178229</v>
       </c>
       <c r="C553">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>0.9771110156035481</v>
       </c>
       <c r="C554">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>0.9777467378198011</v>
       </c>
       <c r="C555">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>0.9688257345128518</v>
       </c>
       <c r="C556">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6504,7 +6504,7 @@
         <v>0.961692513400905</v>
       </c>
       <c r="C557">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>0.954093692919308</v>
       </c>
       <c r="C558">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>0.9463277342024522</v>
       </c>
       <c r="C559">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6537,7 +6537,7 @@
         <v>0.9467485644019435</v>
       </c>
       <c r="C560">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6548,7 +6548,7 @@
         <v>0.9470619485930543</v>
       </c>
       <c r="C561">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6559,7 +6559,7 @@
         <v>0.9340430739109153</v>
       </c>
       <c r="C562">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>0.9355473180282464</v>
       </c>
       <c r="C563">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6581,7 +6581,7 @@
         <v>0.9374216539522223</v>
       </c>
       <c r="C564">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6592,7 +6592,7 @@
         <v>0.9408062032162172</v>
       </c>
       <c r="C565">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6603,7 +6603,7 @@
         <v>0.9415434022181631</v>
       </c>
       <c r="C566">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>0.9382752527965809</v>
       </c>
       <c r="C567">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>0.9357801177130713</v>
       </c>
       <c r="C568">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6636,7 +6636,7 @@
         <v>0.9333983978606306</v>
       </c>
       <c r="C569">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6647,7 +6647,7 @@
         <v>0.9261368384608956</v>
       </c>
       <c r="C570">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6658,7 +6658,7 @@
         <v>0.9188454329477216</v>
       </c>
       <c r="C571">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6669,7 +6669,7 @@
         <v>0.9194184783257525</v>
       </c>
       <c r="C572">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6680,7 +6680,7 @@
         <v>0.9111361818464</v>
       </c>
       <c r="C573">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6691,7 +6691,7 @@
         <v>0.9137387629382901</v>
       </c>
       <c r="C574">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6702,7 +6702,7 @@
         <v>0.9203078925062379</v>
       </c>
       <c r="C575">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6713,7 +6713,7 @@
         <v>0.9223135513293459</v>
       </c>
       <c r="C576">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6724,7 +6724,7 @@
         <v>0.9290975729140551</v>
       </c>
       <c r="C577">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6735,7 +6735,7 @@
         <v>0.9265546840490432</v>
       </c>
       <c r="C578">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6746,7 +6746,7 @@
         <v>0.9222866898272507</v>
       </c>
       <c r="C579">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6757,7 +6757,7 @@
         <v>0.9224329357831024</v>
       </c>
       <c r="C580">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>0.9179709418239557</v>
       </c>
       <c r="C581">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6779,7 +6779,7 @@
         <v>0.9138730704487661</v>
       </c>
       <c r="C582">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6790,7 +6790,7 @@
         <v>0.9145087926650192</v>
       </c>
       <c r="C583">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6801,7 +6801,7 @@
         <v>0.9275664672946289</v>
       </c>
       <c r="C584">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6812,7 +6812,7 @@
         <v>0.928232035624321</v>
       </c>
       <c r="C585">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6823,7 +6823,7 @@
         <v>0.9303570789011855</v>
       </c>
       <c r="C586">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6834,7 +6834,7 @@
         <v>0.9260114847844514</v>
       </c>
       <c r="C587">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6845,7 +6845,7 @@
         <v>0.9268829912968733</v>
       </c>
       <c r="C588">
-        <v>1.138e-05</v>
+        <v>0.6666667584</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6856,7 +6856,7 @@
         <v>0.9227403507515251</v>
       </c>
       <c r="C589">
-        <v>1.138e-05</v>
+        <v>1.0000000903</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6867,7 +6867,7 @@
         <v>0.9258652388285997</v>
       </c>
       <c r="C590">
-        <v>1.138e-05</v>
+        <v>1.0000000904</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6878,7 +6878,7 @@
         <v>0.9372634695509952</v>
       </c>
       <c r="C591">
-        <v>1.138e-05</v>
+        <v>1.0000000913</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6889,7 +6889,7 @@
         <v>0.9402510655062497</v>
       </c>
       <c r="C592">
-        <v>1.138e-05</v>
+        <v>1.0000000913</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6900,7 +6900,7 @@
         <v>0.9426596468607858</v>
       </c>
       <c r="C593">
-        <v>1.138e-05</v>
+        <v>0.6666667582</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6911,7 +6911,7 @@
         <v>0.9371321466518631</v>
       </c>
       <c r="C594">
-        <v>1.138e-05</v>
+        <v>0.6666667578</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>0.9412688179745233</v>
       </c>
       <c r="C595">
-        <v>1.138e-05</v>
+        <v>1.0000000912</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6933,7 +6933,7 @@
         <v>0.9343833196041211</v>
       </c>
       <c r="C596">
-        <v>1.138e-05</v>
+        <v>1.0000000908</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6944,7 +6944,7 @@
         <v>0.9349265188687128</v>
       </c>
       <c r="C597">
-        <v>1.138e-05</v>
+        <v>1.0000000904</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6955,7 +6955,7 @@
         <v>0.9321448610961881</v>
       </c>
       <c r="C598">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -6966,7 +6966,7 @@
         <v>0.9384722371452789</v>
       </c>
       <c r="C599">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -6977,7 +6977,7 @@
         <v>0.9371709465993339</v>
       </c>
       <c r="C600">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -6988,7 +6988,7 @@
         <v>0.9420060169764694</v>
       </c>
       <c r="C601">
-        <v>1.138e-05</v>
+        <v>0.6666667582</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -6999,7 +6999,7 @@
         <v>0.9393914974392035</v>
       </c>
       <c r="C602">
-        <v>1.138e-05</v>
+        <v>0.6666667592</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7010,7 +7010,7 @@
         <v>0.9425014624595585</v>
       </c>
       <c r="C603">
-        <v>1.138e-05</v>
+        <v>0.6666667592</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7021,7 +7021,7 @@
         <v>0.9507300359347206</v>
       </c>
       <c r="C604">
-        <v>1.138e-05</v>
+        <v>0.6666667597</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7032,7 +7032,7 @@
         <v>0.9524491720688132</v>
       </c>
       <c r="C605">
-        <v>1.138e-05</v>
+        <v>0.6666667603</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7043,7 +7043,7 @@
         <v>0.9470768716497737</v>
       </c>
       <c r="C606">
-        <v>1.138e-05</v>
+        <v>0.666666761</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7054,7 +7054,7 @@
         <v>0.9515120041068252</v>
       </c>
       <c r="C607">
-        <v>1.138e-05</v>
+        <v>0.666666761</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7065,7 +7065,7 @@
         <v>0.9528162792641142</v>
       </c>
       <c r="C608">
-        <v>1.138e-05</v>
+        <v>0.6666667606</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7076,7 +7076,7 @@
         <v>0.9538549240117952</v>
       </c>
       <c r="C609">
-        <v>1.138e-05</v>
+        <v>0.6666667607</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7087,7 +7087,7 @@
         <v>0.9499420985399282</v>
       </c>
       <c r="C610">
-        <v>1.138e-05</v>
+        <v>1.0000000934</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7098,7 +7098,7 @@
         <v>0.9572036579396631</v>
       </c>
       <c r="C611">
-        <v>1.138e-05</v>
+        <v>1.0000000937</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7109,7 +7109,7 @@
         <v>0.9587884865632798</v>
       </c>
       <c r="C612">
-        <v>1.138e-05</v>
+        <v>0.6666667607</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7120,7 +7120,7 @@
         <v>0.9604359920251185</v>
       </c>
       <c r="C613">
-        <v>1.138e-05</v>
+        <v>0.6666667614</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7131,7 +7131,7 @@
         <v>0.9588451941788141</v>
       </c>
       <c r="C614">
-        <v>1.138e-05</v>
+        <v>0.6666667626</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7142,7 +7142,7 @@
         <v>0.9559829519000036</v>
       </c>
       <c r="C615">
-        <v>1.138e-05</v>
+        <v>0.6666667692</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7153,7 +7153,7 @@
         <v>0.9543414156608526</v>
       </c>
       <c r="C616">
-        <v>1.138e-05</v>
+        <v>0.6666667701</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7164,7 +7164,7 @@
         <v>0.9604956842519967</v>
       </c>
       <c r="C617">
-        <v>1.138e-05</v>
+        <v>0.6666667757</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7175,7 +7175,7 @@
         <v>0.9617671286845028</v>
       </c>
       <c r="C618">
-        <v>1.138e-05</v>
+        <v>0.6666667757</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7186,7 +7186,7 @@
         <v>0.9480498549478887</v>
       </c>
       <c r="C619">
-        <v>1.138e-05</v>
+        <v>0.6666667748</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7197,7 +7197,7 @@
         <v>0.9513657581509737</v>
       </c>
       <c r="C620">
-        <v>1.138e-05</v>
+        <v>0.6666667772</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7208,7 +7208,7 @@
         <v>0.9643219559948903</v>
       </c>
       <c r="C621">
-        <v>1.138e-05</v>
+        <v>0.6666667776</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7219,7 +7219,7 @@
         <v>0.9684645965402385</v>
       </c>
       <c r="C622">
-        <v>1.138e-05</v>
+        <v>0.6666667764</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7230,7 +7230,7 @@
         <v>0.9664111839356279</v>
       </c>
       <c r="C623">
-        <v>1.138e-05</v>
+        <v>0.6666667756</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7241,7 +7241,7 @@
         <v>0.9701777634516433</v>
       </c>
       <c r="C624">
-        <v>1.138e-05</v>
+        <v>1.0000001095</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7252,7 +7252,7 @@
         <v>0.968115397013001</v>
       </c>
       <c r="C625">
-        <v>1.138e-05</v>
+        <v>1.00000011</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7263,7 +7263,7 @@
         <v>0.9693032723278775</v>
       </c>
       <c r="C626">
-        <v>1.138e-05</v>
+        <v>1.0000001074</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7274,7 +7274,7 @@
         <v>0.9699330253214427</v>
       </c>
       <c r="C627">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7285,7 +7285,7 @@
         <v>0.9709657008464357</v>
       </c>
       <c r="C628">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7296,7 +7296,7 @@
         <v>0.9768722466960353</v>
       </c>
       <c r="C629">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>0.9827250695414442</v>
       </c>
       <c r="C630">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7318,7 +7318,7 @@
         <v>0.98046273414276</v>
       </c>
       <c r="C631">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7329,7 +7329,7 @@
         <v>0.9768424005825961</v>
       </c>
       <c r="C632">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7340,7 +7340,7 @@
         <v>0.9736040972744529</v>
       </c>
       <c r="C633">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7351,7 +7351,7 @@
         <v>0.9787913517901699</v>
       </c>
       <c r="C634">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7362,7 +7362,7 @@
         <v>0.9795106431240523</v>
       </c>
       <c r="C635">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7373,7 +7373,7 @@
         <v>0.9776303379773886</v>
       </c>
       <c r="C636">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7384,7 +7384,7 @@
         <v>0.9735056051001039</v>
       </c>
       <c r="C637">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7395,7 +7395,7 @@
         <v>0.9576244881391545</v>
       </c>
       <c r="C638">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7406,7 +7406,7 @@
         <v>0.9662261380323055</v>
       </c>
       <c r="C639">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7417,7 +7417,7 @@
         <v>0.9703747478003415</v>
       </c>
       <c r="C640">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7428,7 +7428,7 @@
         <v>0.9689391497439203</v>
       </c>
       <c r="C641">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7439,7 +7439,7 @@
         <v>0.9754993254778362</v>
       </c>
       <c r="C642">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7450,7 +7450,7 @@
         <v>0.9755858792068096</v>
       </c>
       <c r="C643">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>0.9810148872413834</v>
       </c>
       <c r="C644">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7472,7 +7472,7 @@
         <v>0.9820057782075619</v>
       </c>
       <c r="C645">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7483,7 +7483,7 @@
         <v>0.9812506715375523</v>
       </c>
       <c r="C646">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7494,7 +7494,7 @@
         <v>0.9764185857717609</v>
       </c>
       <c r="C647">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7505,7 +7505,7 @@
         <v>0.9943292384465695</v>
       </c>
       <c r="C648">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7516,7 +7516,7 @@
         <v>1.003620333560164</v>
       </c>
       <c r="C649">
-        <v>1.138e-05</v>
+        <v>0.6666667802</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7527,7 +7527,7 @@
         <v>1.004390363286893</v>
       </c>
       <c r="C650">
-        <v>1.138e-05</v>
+        <v>0.6666667834</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7538,7 +7538,7 @@
         <v>1.003912825471867</v>
       </c>
       <c r="C651">
-        <v>1.138e-05</v>
+        <v>0.666666781</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7549,7 +7549,7 @@
         <v>1.003071165072884</v>
       </c>
       <c r="C652">
-        <v>1.138e-05</v>
+        <v>0.6666667795</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>1.004954454830892</v>
       </c>
       <c r="C653">
-        <v>1.138e-05</v>
+        <v>1.0000001121</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7571,7 +7571,7 @@
         <v>1.008673280565405</v>
       </c>
       <c r="C654">
-        <v>1.138e-05</v>
+        <v>0.6666667839</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7582,7 +7582,7 @@
         <v>1.010087986342419</v>
       </c>
       <c r="C655">
-        <v>1.138e-05</v>
+        <v>0.6666667831</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7593,7 +7593,7 @@
         <v>1.010407339756217</v>
       </c>
       <c r="C656">
-        <v>1.138e-05</v>
+        <v>0.6666667837</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7604,7 +7604,7 @@
         <v>1.004470947793178</v>
       </c>
       <c r="C657">
-        <v>1.138e-05</v>
+        <v>0.6666667811</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7615,7 +7615,7 @@
         <v>1.004393347898237</v>
       </c>
       <c r="C658">
-        <v>1.138e-05</v>
+        <v>1.0000001149</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>1.007730143380729</v>
       </c>
       <c r="C659">
-        <v>1.138e-05</v>
+        <v>1.0000001138</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7637,7 +7637,7 @@
         <v>1.00864641906331</v>
       </c>
       <c r="C660">
-        <v>1.138e-05</v>
+        <v>1.0000001154</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7648,7 +7648,7 @@
         <v>1.010037247949572</v>
       </c>
       <c r="C661">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7659,7 +7659,7 @@
         <v>1.006240822320117</v>
       </c>
       <c r="C662">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7670,7 +7670,7 @@
         <v>1.000925229516612</v>
       </c>
       <c r="C663">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7681,7 +7681,7 @@
         <v>1.003683010398386</v>
       </c>
       <c r="C664">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7692,7 +7692,7 @@
         <v>1.001886274369352</v>
       </c>
       <c r="C665">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7703,7 +7703,7 @@
         <v>1.004620178360374</v>
       </c>
       <c r="C666">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7714,7 +7714,7 @@
         <v>1.002175781669711</v>
       </c>
       <c r="C667">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7725,7 +7725,7 @@
         <v>1.000599906880126</v>
       </c>
       <c r="C668">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7736,7 +7736,7 @@
         <v>0.9973228036245121</v>
       </c>
       <c r="C669">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7747,7 +7747,7 @@
         <v>0.9979286797273259</v>
       </c>
       <c r="C670">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7758,7 +7758,7 @@
         <v>0.9984330790444468</v>
       </c>
       <c r="C671">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7769,7 +7769,7 @@
         <v>0.996752742857825</v>
       </c>
       <c r="C672">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7780,7 +7780,7 @@
         <v>0.9995284314076621</v>
       </c>
       <c r="C673">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7791,7 +7791,7 @@
         <v>1.007121282666571</v>
       </c>
       <c r="C674">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7802,7 +7802,7 @@
         <v>1.009691033033678</v>
       </c>
       <c r="C675">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7813,7 +7813,7 @@
         <v>1.011269892434607</v>
       </c>
       <c r="C676">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7824,7 +7824,7 @@
         <v>1.010619247161635</v>
       </c>
       <c r="C677">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7835,7 +7835,7 @@
         <v>1.011938445375643</v>
       </c>
       <c r="C678">
-        <v>1.138e-05</v>
+        <v>0.6666667803</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7846,7 +7846,7 @@
         <v>1.008341988706231</v>
       </c>
       <c r="C679">
-        <v>1.138e-05</v>
+        <v>0.6666667826</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7857,7 +7857,7 @@
         <v>1.006422883612096</v>
       </c>
       <c r="C680">
-        <v>1.138e-05</v>
+        <v>1.0000001151</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7868,7 +7868,7 @@
         <v>1.009332879672409</v>
       </c>
       <c r="C681">
-        <v>1.138e-05</v>
+        <v>0.6666667836</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7879,7 +7879,7 @@
         <v>1.005864761290785</v>
       </c>
       <c r="C682">
-        <v>1.138e-05</v>
+        <v>0.666666783</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7890,7 +7890,7 @@
         <v>1.008395711710421</v>
       </c>
       <c r="C683">
-        <v>1.138e-05</v>
+        <v>1.0000001148</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7901,7 +7901,7 @@
         <v>1.009007557035923</v>
       </c>
       <c r="C684">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7912,7 +7912,7 @@
         <v>1.011260938600576</v>
       </c>
       <c r="C685">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7923,7 +7923,7 @@
         <v>1.013842627413058</v>
       </c>
       <c r="C686">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7934,7 +7934,7 @@
         <v>1.017027207717011</v>
       </c>
       <c r="C687">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -7945,7 +7945,7 @@
         <v>1.019784988598785</v>
       </c>
       <c r="C688">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -7956,7 +7956,7 @@
         <v>1.011884722371453</v>
       </c>
       <c r="C689">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -7967,7 +7967,7 @@
         <v>1.012780105774626</v>
       </c>
       <c r="C690">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -7978,7 +7978,7 @@
         <v>1.013547150890011</v>
       </c>
       <c r="C691">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -7989,7 +7989,7 @@
         <v>1.009786540596683</v>
       </c>
       <c r="C692">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8000,7 +8000,7 @@
         <v>1.006333345271779</v>
       </c>
       <c r="C693">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8011,7 +8011,7 @@
         <v>1.011237061709824</v>
       </c>
       <c r="C694">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8022,7 +8022,7 @@
         <v>1.018817974523358</v>
       </c>
       <c r="C695">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>1.019382066067357</v>
       </c>
       <c r="C696">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8044,7 +8044,7 @@
         <v>1.023062091854399</v>
       </c>
       <c r="C697">
-        <v>1.138e-05</v>
+        <v>0.66666679</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8055,7 +8055,7 @@
         <v>1.024518582190227</v>
       </c>
       <c r="C698">
-        <v>1.138e-05</v>
+        <v>0.6666667897</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8066,7 +8066,7 @@
         <v>1.02904623759894</v>
       </c>
       <c r="C699">
-        <v>1.138e-05</v>
+        <v>0.6666667957</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8077,7 +8077,7 @@
         <v>1.023587383450927</v>
       </c>
       <c r="C700">
-        <v>1.138e-05</v>
+        <v>0.6666667962</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8088,7 +8088,7 @@
         <v>1.015519978988336</v>
       </c>
       <c r="C701">
-        <v>1.138e-05</v>
+        <v>0.6666667957</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8099,7 +8099,7 @@
         <v>1.014544011078877</v>
       </c>
       <c r="C702">
-        <v>1.138e-05</v>
+        <v>0.6666667977</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8110,7 +8110,7 @@
         <v>1.009667156142927</v>
       </c>
       <c r="C703">
-        <v>1.138e-05</v>
+        <v>0.6666667985</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8121,7 +8121,7 @@
         <v>1.012499552308298</v>
       </c>
       <c r="C704">
-        <v>1.138e-05</v>
+        <v>0.6666668092</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8132,7 +8132,7 @@
         <v>1.017901698840777</v>
       </c>
       <c r="C705">
-        <v>1.138e-05</v>
+        <v>0.6666668112</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8143,7 +8143,7 @@
         <v>1.023858983083223</v>
       </c>
       <c r="C706">
-        <v>1.138e-05</v>
+        <v>0.6666668177</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8154,7 +8154,7 @@
         <v>1.000417845588148</v>
       </c>
       <c r="C707">
-        <v>1.138e-05</v>
+        <v>0.6666668102</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8165,7 +8165,7 @@
         <v>1.000984921743491</v>
       </c>
       <c r="C708">
-        <v>1.138e-05</v>
+        <v>0.6666668123</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8176,7 +8176,7 @@
         <v>0.9915565345080763</v>
       </c>
       <c r="C709">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8187,7 +8187,7 @@
         <v>0.9949679452741663</v>
       </c>
       <c r="C710">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8198,7 +8198,7 @@
         <v>0.9962214820386089</v>
       </c>
       <c r="C711">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8209,7 +8209,7 @@
         <v>0.9900522903907454</v>
       </c>
       <c r="C712">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8220,7 +8220,7 @@
         <v>0.9901806286785334</v>
       </c>
       <c r="C713">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8231,7 +8231,7 @@
         <v>0.9877929396034049</v>
       </c>
       <c r="C714">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8242,7 +8242,7 @@
         <v>0.9860200804651218</v>
       </c>
       <c r="C715">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8253,7 +8253,7 @@
         <v>0.9831190382388405</v>
       </c>
       <c r="C716">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8264,7 +8264,7 @@
         <v>0.976579754784332</v>
       </c>
       <c r="C717">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8275,7 +8275,7 @@
         <v>0.9819341475353079</v>
       </c>
       <c r="C718">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8286,7 +8286,7 @@
         <v>0.9915475806740446</v>
       </c>
       <c r="C719">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8297,7 +8297,7 @@
         <v>0.9791942743215978</v>
       </c>
       <c r="C720">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8308,7 +8308,7 @@
         <v>0.9858290653391115</v>
       </c>
       <c r="C721">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8319,7 +8319,7 @@
         <v>0.9826653773145662</v>
       </c>
       <c r="C722">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8330,7 +8330,7 @@
         <v>0.9748158494800807</v>
       </c>
       <c r="C723">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8341,7 +8341,7 @@
         <v>0.9753471102992969</v>
       </c>
       <c r="C724">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8352,7 +8352,7 @@
         <v>0.9838890679655695</v>
       </c>
       <c r="C725">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8363,7 +8363,7 @@
         <v>0.9812238100354572</v>
       </c>
       <c r="C726">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8374,7 +8374,7 @@
         <v>0.9849396511586261</v>
       </c>
       <c r="C727">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8385,7 +8385,7 @@
         <v>0.9840442677554528</v>
       </c>
       <c r="C728">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8396,7 +8396,7 @@
         <v>0.979089812924561</v>
       </c>
       <c r="C729">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8407,7 +8407,7 @@
         <v>0.986748325633036</v>
       </c>
       <c r="C730">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8418,7 +8418,7 @@
         <v>0.9776930148156108</v>
       </c>
       <c r="C731">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8429,7 +8429,7 @@
         <v>0.983841314184067</v>
       </c>
       <c r="C732">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8440,7 +8440,7 @@
         <v>0.9870617098241468</v>
       </c>
       <c r="C733">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8451,7 +8451,7 @@
         <v>0.9993463701156835</v>
       </c>
       <c r="C734">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8462,7 +8462,7 @@
         <v>1.00554839248833</v>
       </c>
       <c r="C735">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8473,7 +8473,7 @@
         <v>1.010502847319222</v>
       </c>
       <c r="C736">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8484,7 +8484,7 @@
         <v>1.012305552570944</v>
       </c>
       <c r="C737">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8495,7 +8495,7 @@
         <v>1.017597268483698</v>
       </c>
       <c r="C738">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8506,7 +8506,7 @@
         <v>1.018916466697707</v>
       </c>
       <c r="C739">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8517,7 +8517,7 @@
         <v>1.021283263493428</v>
       </c>
       <c r="C740">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>1.022333846686484</v>
       </c>
       <c r="C741">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8539,7 +8539,7 @@
         <v>1.023405322158949</v>
       </c>
       <c r="C742">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8550,7 +8550,7 @@
         <v>1.017898714229433</v>
       </c>
       <c r="C743">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8561,7 +8561,7 @@
         <v>1.02568854983704</v>
       </c>
       <c r="C744">
-        <v>1.138e-05</v>
+        <v>0.6666668086999999</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>1.02810011580292</v>
       </c>
       <c r="C745">
-        <v>1.138e-05</v>
+        <v>0.666666809</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8583,7 +8583,7 @@
         <v>1.037077826725404</v>
       </c>
       <c r="C746">
-        <v>1.138e-05</v>
+        <v>0.6666668139</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8594,7 +8594,7 @@
         <v>1.040990652197271</v>
       </c>
       <c r="C747">
-        <v>1.138e-05</v>
+        <v>0.6666668147</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8605,7 +8605,7 @@
         <v>1.04501987751155</v>
       </c>
       <c r="C748">
-        <v>1.138e-05</v>
+        <v>0.6666668111</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8616,7 +8616,7 @@
         <v>1.058492413117964</v>
       </c>
       <c r="C749">
-        <v>1.138e-05</v>
+        <v>0.6666668132</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8627,7 +8627,7 @@
         <v>1.062363454031016</v>
       </c>
       <c r="C750">
-        <v>1.138e-05</v>
+        <v>1.0000001464</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8638,7 +8638,7 @@
         <v>1.059032627771212</v>
       </c>
       <c r="C751">
-        <v>1.138e-05</v>
+        <v>1.000000142</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8649,7 +8649,7 @@
         <v>1.061963516110932</v>
       </c>
       <c r="C752">
-        <v>1.138e-05</v>
+        <v>1.0000001405</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8660,7 +8660,7 @@
         <v>1.051478576459773</v>
       </c>
       <c r="C753">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8671,7 +8671,7 @@
         <v>1.04103542136743</v>
       </c>
       <c r="C754">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8682,7 +8682,7 @@
         <v>1.038892470422502</v>
       </c>
       <c r="C755">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8693,7 +8693,7 @@
         <v>1.028789561023363</v>
       </c>
       <c r="C756">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8704,7 +8704,7 @@
         <v>1.033296324152669</v>
       </c>
       <c r="C757">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8715,7 +8715,7 @@
         <v>1.04088320618889</v>
       </c>
       <c r="C758">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8726,7 +8726,7 @@
         <v>1.006008022635293</v>
       </c>
       <c r="C759">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8737,7 +8737,7 @@
         <v>0.9876854935950241</v>
       </c>
       <c r="C760">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8748,7 +8748,7 @@
         <v>0.9735951434404212</v>
       </c>
       <c r="C761">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8759,7 +8759,7 @@
         <v>0.9341385814739205</v>
       </c>
       <c r="C762">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8770,7 +8770,7 @@
         <v>0.941385217816936</v>
       </c>
       <c r="C763">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8781,7 +8781,7 @@
         <v>0.9505867745902129</v>
       </c>
       <c r="C764">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8792,7 +8792,7 @@
         <v>0.9548249226985661</v>
       </c>
       <c r="C765">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8803,7 +8803,7 @@
         <v>0.9755381254253072</v>
       </c>
       <c r="C766">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8814,7 +8814,7 @@
         <v>0.9816446402349486</v>
       </c>
       <c r="C767">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8825,7 +8825,7 @@
         <v>0.9937472392345069</v>
       </c>
       <c r="C768">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8836,7 +8836,7 @@
         <v>0.9825549466948414</v>
       </c>
       <c r="C769">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8847,7 +8847,7 @@
         <v>0.9728072060456286</v>
       </c>
       <c r="C770">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8858,7 +8858,7 @@
         <v>0.9770871387127968</v>
       </c>
       <c r="C771">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8869,7 +8869,7 @@
         <v>0.9713507157098004</v>
       </c>
       <c r="C772">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8880,7 +8880,7 @@
         <v>0.9720670224323388</v>
       </c>
       <c r="C773">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8891,7 +8891,7 @@
         <v>0.981829686138271</v>
       </c>
       <c r="C774">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8902,7 +8902,7 @@
         <v>0.9764663395532635</v>
       </c>
       <c r="C775">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8913,7 +8913,7 @@
         <v>0.98146257894297</v>
       </c>
       <c r="C776">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8924,7 +8924,7 @@
         <v>0.9870617098241468</v>
       </c>
       <c r="C777">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8935,7 +8935,7 @@
         <v>0.9928906557788044</v>
       </c>
       <c r="C778">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -8946,7 +8946,7 @@
         <v>0.9879779855067272</v>
       </c>
       <c r="C779">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8957,7 +8957,7 @@
         <v>0.9823490085121116</v>
       </c>
       <c r="C780">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -8968,7 +8968,7 @@
         <v>0.982268424005826</v>
       </c>
       <c r="C781">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -8979,7 +8979,7 @@
         <v>0.9759320941227034</v>
       </c>
       <c r="C782">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -8990,7 +8990,7 @@
         <v>0.9787286749519477</v>
       </c>
       <c r="C783">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9001,7 +9001,7 @@
         <v>0.9821281472726621</v>
       </c>
       <c r="C784">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9012,7 +9012,7 @@
         <v>0.9792360588804125</v>
       </c>
       <c r="C785">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9023,7 +9023,7 @@
         <v>0.9740219428626005</v>
       </c>
       <c r="C786">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9034,7 +9034,7 @@
         <v>0.9409763260628202</v>
       </c>
       <c r="C787">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9045,7 +9045,7 @@
         <v>0.9352936260640139</v>
       </c>
       <c r="C788">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9056,7 +9056,7 @@
         <v>0.9451219512195123</v>
       </c>
       <c r="C789">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9067,7 +9067,7 @@
         <v>0.9318822152979239</v>
       </c>
       <c r="C790">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9078,7 +9078,7 @@
         <v>0.9432953690770388</v>
       </c>
       <c r="C791">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9089,7 +9089,7 @@
         <v>0.9457934887718922</v>
       </c>
       <c r="C792">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9100,7 +9100,7 @@
         <v>0.9440862910831751</v>
       </c>
       <c r="C793">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9111,7 +9111,7 @@
         <v>0.936162147965092</v>
       </c>
       <c r="C794">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9122,7 +9122,7 @@
         <v>0.9345146425032532</v>
       </c>
       <c r="C795">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9133,7 +9133,7 @@
         <v>0.9366575934481812</v>
       </c>
       <c r="C796">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9144,7 +9144,7 @@
         <v>0.9521865262705491</v>
       </c>
       <c r="C797">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9155,7 +9155,7 @@
         <v>0.9574871960173346</v>
       </c>
       <c r="C798">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9166,7 +9166,7 @@
         <v>0.9491541611451356</v>
       </c>
       <c r="C799">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9177,7 +9177,7 @@
         <v>0.9428536465981401</v>
       </c>
       <c r="C800">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9188,7 +9188,7 @@
         <v>0.9284081276936118</v>
       </c>
       <c r="C801">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9199,7 +9199,7 @@
         <v>0.9153206069505629</v>
       </c>
       <c r="C802">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9210,7 +9210,7 @@
         <v>0.9226627508565834</v>
       </c>
       <c r="C803">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9221,7 +9221,7 @@
         <v>0.9304167711280638</v>
       </c>
       <c r="C804">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9232,7 +9232,7 @@
         <v>0.9167353127275766</v>
       </c>
       <c r="C805">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9243,7 +9243,7 @@
         <v>0.9156817449231762</v>
       </c>
       <c r="C806">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9254,7 +9254,7 @@
         <v>0.9338639972302806</v>
       </c>
       <c r="C807">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9265,7 +9265,7 @@
         <v>0.9305928631973543</v>
       </c>
       <c r="C808">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9276,7 +9276,7 @@
         <v>0.9177769420866015</v>
       </c>
       <c r="C809">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9287,7 +9287,7 @@
         <v>0.9199258622542172</v>
       </c>
       <c r="C810">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9298,7 +9298,7 @@
         <v>0.9196124780631065</v>
       </c>
       <c r="C811">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9309,7 +9309,7 @@
         <v>0.9254861931879231</v>
       </c>
       <c r="C812">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9320,7 +9320,7 @@
         <v>0.9225523202368588</v>
       </c>
       <c r="C813">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9331,7 +9331,7 @@
         <v>0.9361651325764359</v>
       </c>
       <c r="C814">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9342,7 +9342,7 @@
         <v>0.9435848763773982</v>
       </c>
       <c r="C815">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9353,7 +9353,7 @@
         <v>0.9428834927115791</v>
       </c>
       <c r="C816">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9364,7 +9364,7 @@
         <v>0.9474380096223869</v>
       </c>
       <c r="C817">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9375,7 +9375,7 @@
         <v>0.9441101679739266</v>
       </c>
       <c r="C818">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9386,7 +9386,7 @@
         <v>0.9473245943913184</v>
       </c>
       <c r="C819">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9397,7 +9397,7 @@
         <v>0.952723756312453</v>
       </c>
       <c r="C820">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9408,7 +9408,7 @@
         <v>0.9459934577319342</v>
       </c>
       <c r="C821">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9419,7 +9419,7 @@
         <v>0.9414299869870946</v>
       </c>
       <c r="C822">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9430,7 +9430,7 @@
         <v>0.9530759404510345</v>
       </c>
       <c r="C823">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9441,7 +9441,7 @@
         <v>0.9592063321514273</v>
       </c>
       <c r="C824">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9452,7 +9452,7 @@
         <v>0.9593585473299666</v>
       </c>
       <c r="C825">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9463,7 +9463,7 @@
         <v>0.9458113964399556</v>
       </c>
       <c r="C826">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9474,7 +9474,7 @@
         <v>0.9415404176068193</v>
       </c>
       <c r="C827">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9485,7 +9485,7 @@
         <v>0.9375559614626984</v>
       </c>
       <c r="C828">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9496,7 +9496,7 @@
         <v>0.9356995332067858</v>
       </c>
       <c r="C829">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9507,7 +9507,7 @@
         <v>0.9313360314219883</v>
       </c>
       <c r="C830">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9518,7 +9518,7 @@
         <v>0.9077516325824051</v>
       </c>
       <c r="C831">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9529,7 +9529,7 @@
         <v>0.923877487673555</v>
       </c>
       <c r="C832">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9540,7 +9540,7 @@
         <v>0.9178097728113844</v>
       </c>
       <c r="C833">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9551,7 +9551,7 @@
         <v>0.9226000740183613</v>
       </c>
       <c r="C834">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9562,7 +9562,7 @@
         <v>0.929470649332044</v>
       </c>
       <c r="C835">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9573,7 +9573,7 @@
         <v>0.9297601566324033</v>
       </c>
       <c r="C836">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9584,7 +9584,7 @@
         <v>0.9280648973890619</v>
       </c>
       <c r="C837">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9595,7 +9595,7 @@
         <v>0.9154250683475998</v>
       </c>
       <c r="C838">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9606,7 +9606,7 @@
         <v>0.9111361818464</v>
       </c>
       <c r="C839">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9617,7 +9617,7 @@
         <v>0.9192006016976469</v>
       </c>
       <c r="C840">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9628,7 +9628,7 @@
         <v>0.9102467676659146</v>
       </c>
       <c r="C841">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9639,7 +9639,7 @@
         <v>0.9085634468679488</v>
       </c>
       <c r="C842">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9650,7 +9650,7 @@
         <v>0.9019197020164035</v>
       </c>
       <c r="C843">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9661,7 +9661,7 @@
         <v>0.8678712558050691</v>
       </c>
       <c r="C844">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9672,7 +9672,7 @@
         <v>0.8702320833781025</v>
       </c>
       <c r="C845">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9683,7 +9683,7 @@
         <v>0.8583175148932106</v>
       </c>
       <c r="C846">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9694,7 +9694,7 @@
         <v>0.8624810477179662</v>
       </c>
       <c r="C847">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9705,7 +9705,7 @@
         <v>0.8534018600097896</v>
       </c>
       <c r="C848">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9716,7 +9716,7 @@
         <v>0.8489756813867699</v>
       </c>
       <c r="C849">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9727,7 +9727,7 @@
         <v>0.8396248940462973</v>
       </c>
       <c r="C850">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9738,7 +9738,7 @@
         <v>0.8317813354344997</v>
       </c>
       <c r="C851">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9749,7 +9749,7 @@
         <v>0.8498442032878479</v>
       </c>
       <c r="C852">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9760,7 +9760,7 @@
         <v>0.8283967861705048</v>
       </c>
       <c r="C853">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9771,7 +9771,7 @@
         <v>0.8317783508231558</v>
       </c>
       <c r="C854">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9782,7 +9782,7 @@
         <v>0.8234930697324595</v>
       </c>
       <c r="C855">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9793,7 +9793,7 @@
         <v>0.8159569260890848</v>
       </c>
       <c r="C856">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9804,7 +9804,7 @@
         <v>0.8199413822332056</v>
       </c>
       <c r="C857">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9815,7 +9815,7 @@
         <v>0.8402009240356721</v>
       </c>
       <c r="C858">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9826,7 +9826,7 @@
         <v>0.8439376574382484</v>
       </c>
       <c r="C859">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9837,7 +9837,7 @@
         <v>0.8290563852775091</v>
       </c>
       <c r="C860">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9848,7 +9848,7 @@
         <v>0.8469312226161909</v>
       </c>
       <c r="C861">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9859,7 +9859,7 @@
         <v>0.8449971944653367</v>
       </c>
       <c r="C862">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9870,7 +9870,7 @@
         <v>0.8398815706218736</v>
       </c>
       <c r="C863">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9881,7 +9881,7 @@
         <v>0.8351330539737116</v>
       </c>
       <c r="C864">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9892,7 +9892,7 @@
         <v>0.8318887814428806</v>
       </c>
       <c r="C865">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9903,7 +9903,7 @@
         <v>0.8274984181559878</v>
       </c>
       <c r="C866">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9914,7 +9914,7 @@
         <v>0.8444271336986497</v>
       </c>
       <c r="C867">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9925,7 +9925,7 @@
         <v>0.8534615522366678</v>
       </c>
       <c r="C868">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9936,7 +9936,7 @@
         <v>0.8671967336413452</v>
       </c>
       <c r="C869">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9947,7 +9947,7 @@
         <v>0.8666266728746583</v>
       </c>
       <c r="C870">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9958,7 +9958,7 @@
         <v>0.8602336353760014</v>
       </c>
       <c r="C871">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9969,7 +9969,7 @@
         <v>0.8576549311748625</v>
       </c>
       <c r="C872">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9980,7 +9980,7 @@
         <v>0.856299917624727</v>
       </c>
       <c r="C873">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -9991,7 +9991,7 @@
         <v>0.8584936069625013</v>
       </c>
       <c r="C874">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10002,7 +10002,7 @@
         <v>0.8430124279216361</v>
       </c>
       <c r="C875">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10013,7 +10013,7 @@
         <v>0.8261463892171962</v>
       </c>
       <c r="C876">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10024,7 +10024,7 @@
         <v>0.8179148311306902</v>
       </c>
       <c r="C877">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10035,7 +10035,7 @@
         <v>0.8073851223093729</v>
       </c>
       <c r="C878">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10046,7 +10046,7 @@
         <v>0.8295339230925348</v>
       </c>
       <c r="C879">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10057,7 +10057,7 @@
         <v>0.8189982450485298</v>
       </c>
       <c r="C880">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10068,7 +10068,7 @@
         <v>0.8340138247197451</v>
       </c>
       <c r="C881">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10079,7 +10079,7 @@
         <v>0.8342913935747287</v>
       </c>
       <c r="C882">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10090,7 +10090,7 @@
         <v>0.8314739204660769</v>
       </c>
       <c r="C883">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10101,7 +10101,7 @@
         <v>0.8300084762962168</v>
       </c>
       <c r="C884">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10112,7 +10112,7 @@
         <v>0.8127872688418515</v>
       </c>
       <c r="C885">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10123,7 +10123,7 @@
         <v>0.8073940761434046</v>
       </c>
       <c r="C886">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10134,7 +10134,7 @@
         <v>0.7965838138557596</v>
       </c>
       <c r="C887">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10145,7 +10145,7 @@
         <v>0.8053884173202965</v>
       </c>
       <c r="C888">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10156,7 +10156,7 @@
         <v>0.8159420030323651</v>
       </c>
       <c r="C889">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10167,7 +10167,7 @@
         <v>0.8102055800293686</v>
       </c>
       <c r="C890">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10178,7 +10178,7 @@
         <v>0.8131931759846233</v>
       </c>
       <c r="C891">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10189,7 +10189,7 @@
         <v>0.8146287740410443</v>
       </c>
       <c r="C892">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10200,7 +10200,7 @@
         <v>0.8299905686281532</v>
       </c>
       <c r="C893">
-        <v>1.138e-05</v>
+        <v>0.666666771</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10211,7 +10211,7 @@
         <v>0.8291190621157313</v>
       </c>
       <c r="C894">
-        <v>1.138e-05</v>
+        <v>0.6666667696</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10222,7 +10222,7 @@
         <v>0.8265254348578728</v>
       </c>
       <c r="C895">
-        <v>1.138e-05</v>
+        <v>0.6666667694</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10233,7 +10233,7 @@
         <v>0.8171089860678342</v>
       </c>
       <c r="C896">
-        <v>1.138e-05</v>
+        <v>0.6666667679</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10244,7 +10244,7 @@
         <v>0.8133812064992897</v>
       </c>
       <c r="C897">
-        <v>1.138e-05</v>
+        <v>1.0000001013</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10255,7 +10255,7 @@
         <v>0.812032162171842</v>
       </c>
       <c r="C898">
-        <v>1.138e-05</v>
+        <v>1.0000001019</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10266,7 +10266,7 @@
         <v>0.8209412270334157</v>
       </c>
       <c r="C899">
-        <v>1.138e-05</v>
+        <v>0.666666771</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10277,7 +10277,7 @@
         <v>0.8071403841791722</v>
       </c>
       <c r="C900">
-        <v>1.138e-05</v>
+        <v>1.0000001005</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10288,7 +10288,7 @@
         <v>0.803335004715686</v>
       </c>
       <c r="C901">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10299,7 +10299,7 @@
         <v>0.8065315234650144</v>
       </c>
       <c r="C902">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10310,7 +10310,7 @@
         <v>0.7967360290342992</v>
       </c>
       <c r="C903">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10321,7 +10321,7 @@
         <v>0.795339230925349</v>
       </c>
       <c r="C904">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10332,7 +10332,7 @@
         <v>0.7927456036674905</v>
       </c>
       <c r="C905">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10343,7 +10343,7 @@
         <v>0.8018397144323866</v>
       </c>
       <c r="C906">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10354,7 +10354,7 @@
         <v>0.8003653164284946</v>
       </c>
       <c r="C907">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10365,7 +10365,7 @@
         <v>0.7914562515669209</v>
       </c>
       <c r="C908">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10376,7 +10376,7 @@
         <v>0.8058301397991953</v>
       </c>
       <c r="C909">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10387,7 +10387,7 @@
         <v>0.8150525888518797</v>
       </c>
       <c r="C910">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10398,7 +10398,7 @@
         <v>0.8145720664255101</v>
       </c>
       <c r="C911">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10409,7 +10409,7 @@
         <v>0.8349390542363574</v>
       </c>
       <c r="C912">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10420,7 +10420,7 @@
         <v>0.830062199300407</v>
       </c>
       <c r="C913">
-        <v>1.138e-05</v>
+        <v>0.6666667722</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10431,7 +10431,7 @@
         <v>0.8377236966202261</v>
       </c>
       <c r="C914">
-        <v>1.138e-05</v>
+        <v>0.6666667737999999</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10442,7 +10442,7 @@
         <v>0.8332348411589843</v>
       </c>
       <c r="C915">
-        <v>1.138e-05</v>
+        <v>0.6666667741</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10453,7 +10453,7 @@
         <v>0.8420633215142724</v>
       </c>
       <c r="C916">
-        <v>1.138e-05</v>
+        <v>0.6666667772</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10464,7 +10464,7 @@
         <v>0.8107726561847117</v>
       </c>
       <c r="C917">
-        <v>1.138e-05</v>
+        <v>1.0000001045</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10475,7 +10475,7 @@
         <v>0.8121157312894716</v>
       </c>
       <c r="C918">
-        <v>1.138e-05</v>
+        <v>1.0000001056</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10486,7 +10486,7 @@
         <v>0.8135572985685805</v>
       </c>
       <c r="C919">
-        <v>1.138e-05</v>
+        <v>1.0000001045</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10497,7 +10497,7 @@
         <v>0.7710624022539785</v>
       </c>
       <c r="C920">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10508,7 +10508,7 @@
         <v>0.7780613158554492</v>
       </c>
       <c r="C921">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10519,7 +10519,7 @@
         <v>0.7664780392297315</v>
       </c>
       <c r="C922">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10530,7 +10530,7 @@
         <v>0.7599805403340377</v>
       </c>
       <c r="C923">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10541,7 +10541,7 @@
         <v>0.7645410264675334</v>
       </c>
       <c r="C924">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10552,7 +10552,7 @@
         <v>0.7420997337726681</v>
       </c>
       <c r="C925">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10563,7 +10563,7 @@
         <v>0.7612161694304167</v>
       </c>
       <c r="C926">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10574,7 +10574,7 @@
         <v>0.7923784964721894</v>
       </c>
       <c r="C927">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10585,7 +10585,7 @@
         <v>0.774455905352005</v>
       </c>
       <c r="C928">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10596,7 +10596,7 @@
         <v>0.7769838711602975</v>
       </c>
       <c r="C929">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10607,7 +10607,7 @@
         <v>0.7771331017274931</v>
       </c>
       <c r="C930">
-        <v>1.138e-05</v>
+        <v>0.6666667796</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10618,7 +10618,7 @@
         <v>0.7756557191122572</v>
       </c>
       <c r="C931">
-        <v>1.138e-05</v>
+        <v>0.6666667785</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10629,7 +10629,7 @@
         <v>0.7587180497355634</v>
       </c>
       <c r="C932">
-        <v>1.138e-05</v>
+        <v>1.0000001075</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10640,7 +10640,7 @@
         <v>0.766463116173012</v>
       </c>
       <c r="C933">
-        <v>1.138e-05</v>
+        <v>1.000000109</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10651,7 +10651,7 @@
         <v>0.7768286713704142</v>
       </c>
       <c r="C934">
-        <v>1.138e-05</v>
+        <v>1.0000001091</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10662,7 +10662,7 @@
         <v>0.7778613468954072</v>
       </c>
       <c r="C935">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10673,7 +10673,7 @@
         <v>0.7988252569750367</v>
       </c>
       <c r="C936">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10684,7 +10684,7 @@
         <v>0.7955272614400153</v>
       </c>
       <c r="C937">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10695,7 +10695,7 @@
         <v>0.7937156023542614</v>
       </c>
       <c r="C938">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10706,7 +10706,7 @@
         <v>0.7883373327125343</v>
       </c>
       <c r="C939">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10717,7 +10717,7 @@
         <v>0.7866331196351611</v>
       </c>
       <c r="C940">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10728,7 +10728,7 @@
         <v>0.775661688334945</v>
       </c>
       <c r="C941">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10739,7 +10739,7 @@
         <v>0.7851079832384227</v>
       </c>
       <c r="C942">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10750,7 +10750,7 @@
         <v>0.7923784964721894</v>
       </c>
       <c r="C943">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10761,7 +10761,7 @@
         <v>0.7856213363895753</v>
       </c>
       <c r="C944">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10772,7 +10772,7 @@
         <v>0.7963450449482469</v>
       </c>
       <c r="C945">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10783,7 +10783,7 @@
         <v>0.7996102097584853</v>
       </c>
       <c r="C946">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10794,7 +10794,7 @@
         <v>0.8068926614376276</v>
       </c>
       <c r="C947">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10805,7 +10805,7 @@
         <v>0.7896833924286379</v>
       </c>
       <c r="C948">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10816,7 +10816,7 @@
         <v>0.7913726824492915</v>
       </c>
       <c r="C949">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10827,7 +10827,7 @@
         <v>0.7895580387521937</v>
       </c>
       <c r="C950">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10838,7 +10838,7 @@
         <v>0.769874526939102</v>
       </c>
       <c r="C951">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10849,7 +10849,7 @@
         <v>0.7687791745758867</v>
       </c>
       <c r="C952">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10860,7 +10860,7 @@
         <v>0.7684419134940248</v>
       </c>
       <c r="C953">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10871,7 +10871,7 @@
         <v>0.7765182717906474</v>
       </c>
       <c r="C954">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10882,7 +10882,7 @@
         <v>0.7662810548810334</v>
       </c>
       <c r="C955">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10893,7 +10893,7 @@
         <v>0.7724741234196483</v>
       </c>
       <c r="C956">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10904,7 +10904,7 @@
         <v>0.7923546195814382</v>
       </c>
       <c r="C957">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10915,7 +10915,7 @@
         <v>0.7956854458412426</v>
       </c>
       <c r="C958">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10926,7 +10926,7 @@
         <v>0.7908652985208267</v>
       </c>
       <c r="C959">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10937,7 +10937,7 @@
         <v>0.7775449780929526</v>
       </c>
       <c r="C960">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -10948,7 +10948,7 @@
         <v>0.7777568854983704</v>
       </c>
       <c r="C961">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10959,7 +10959,7 @@
         <v>0.7713966787244965</v>
       </c>
       <c r="C962">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10970,7 +10970,7 @@
         <v>0.7742350441125557</v>
       </c>
       <c r="C963">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -10981,7 +10981,7 @@
         <v>0.7766406408557478</v>
       </c>
       <c r="C964">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -10992,7 +10992,7 @@
         <v>0.7861615510428233</v>
       </c>
       <c r="C965">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -11003,7 +11003,7 @@
         <v>0.7741305827155187</v>
       </c>
       <c r="C966">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11014,7 +11014,7 @@
         <v>0.775393073313993</v>
       </c>
       <c r="C967">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11025,7 +11025,7 @@
         <v>0.7690298819287753</v>
       </c>
       <c r="C968">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11036,7 +11036,7 @@
         <v>0.7609445697981209</v>
       </c>
       <c r="C969">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11047,7 +11047,7 @@
         <v>0.7569780213220635</v>
       </c>
       <c r="C970">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11058,7 +11058,7 @@
         <v>0.7510028294115541</v>
       </c>
       <c r="C971">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11069,7 +11069,7 @@
         <v>0.7542142712176021</v>
       </c>
       <c r="C972">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11080,7 +11080,7 @@
         <v>0.7475914186454641</v>
       </c>
       <c r="C973">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11091,7 +11091,7 @@
         <v>0.7456424674378902</v>
       </c>
       <c r="C974">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11102,7 +11102,7 @@
         <v>0.7411058581951459</v>
       </c>
       <c r="C975">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11113,7 +11113,7 @@
         <v>0.7443322230579135</v>
       </c>
       <c r="C976">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11124,7 +11124,7 @@
         <v>0.7357932500029846</v>
       </c>
       <c r="C977">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11135,7 +11135,7 @@
         <v>0.7355156811480009</v>
       </c>
       <c r="C978">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11146,7 +11146,7 @@
         <v>0.7505909530460944</v>
       </c>
       <c r="C979">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11157,7 +11157,7 @@
         <v>0.7560289149146998</v>
       </c>
       <c r="C980">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11168,7 +11168,7 @@
         <v>0.754050117593687</v>
       </c>
       <c r="C981">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11179,7 +11179,7 @@
         <v>0.7593895872879434</v>
       </c>
       <c r="C982">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11190,7 +11190,7 @@
         <v>0.7566288217948258</v>
       </c>
       <c r="C983">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -11201,7 +11201,7 @@
         <v>0.7622189988419708</v>
       </c>
       <c r="C984">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11212,7 +11212,7 @@
         <v>0.7568287907548679</v>
       </c>
       <c r="C985">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11223,7 +11223,7 @@
         <v>0.7671495767821114</v>
       </c>
       <c r="C986">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11234,7 +11234,7 @@
         <v>0.7671704690615189</v>
       </c>
       <c r="C987">
-        <v>1.138e-05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -11245,7 +11245,7 @@
         <v>0.7639530580327829</v>
       </c>
       <c r="C988">
-        <v>1.138e-05</v>
+        <v>0.6666667692</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11256,7 +11256,7 @@
         <v>0.7748080894905867</v>
       </c>
       <c r="C989">
-        <v>1.138e-05</v>
+        <v>0.666666771</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11267,7 +11267,7 @@
         <v>0.7791357759392573</v>
       </c>
       <c r="C990">
-        <v>1.138e-05</v>
+        <v>0.6666667701</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11278,7 +11278,7 @@
         <v>0.769940188388668</v>
       </c>
       <c r="C991">
-        <v>1.138e-05</v>
+        <v>1.0000001028</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11289,7 +11289,7 @@
         <v>0.7703281878633764</v>
       </c>
       <c r="C992">
-        <v>1.138e-05</v>
+        <v>0.6666667702</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11300,7 +11300,7 @@
         <v>0.7735187373900171</v>
       </c>
       <c r="C993">
-        <v>1.138e-05</v>
+        <v>0.6666667719</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11311,7 +11311,7 @@
         <v>0.7765123025679596</v>
       </c>
       <c r="C994">
-        <v>1.138e-05</v>
+        <v>0.6666667767</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11322,7 +11322,7 @@
         <v>0.7750975967909459</v>
       </c>
       <c r="C995">
-        <v>1.138e-05</v>
+        <v>0.6666667761</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11333,7 +11333,7 @@
         <v>0.7742827978940583</v>
       </c>
       <c r="C996">
-        <v>1.138e-05</v>
+        <v>0.6666667767</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11344,7 +11344,7 @@
         <v>0.7687105285149768</v>
       </c>
       <c r="C997">
-        <v>1.138e-05</v>
+        <v>0.6666667762</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11355,7 +11355,7 @@
         <v>0.7713936941131526</v>
       </c>
       <c r="C998">
-        <v>1.138e-05</v>
+        <v>0.6666667777</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11366,7 +11366,7 @@
         <v>0.7814398958967563</v>
       </c>
       <c r="C999">
-        <v>1.138e-05</v>
+        <v>0.6666667787</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11377,7 +11377,7 @@
         <v>0.7920860045604862</v>
       </c>
       <c r="C1000">
-        <v>1.138e-05</v>
+        <v>0.6666667788</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11388,7 +11388,7 @@
         <v>0.7974553203681817</v>
       </c>
       <c r="C1001">
-        <v>1.138e-05</v>
+        <v>0.6666667786</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11399,7 +11399,7 @@
         <v>0.812133638957535</v>
       </c>
       <c r="C1002">
-        <v>1.138e-05</v>
+        <v>0.6666667804999999</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
@@ -11410,7 +11410,7 @@
         <v>0.8117247472034191</v>
       </c>
       <c r="C1003">
-        <v>1.138e-05</v>
+        <v>0.6666667791999999</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11421,7 +11421,7 @@
         <v>0.800589162279288</v>
       </c>
       <c r="C1004">
-        <v>1.138e-05</v>
+        <v>1.0000001095</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11432,7 +11432,7 @@
         <v>0.822069410121414</v>
       </c>
       <c r="C1005">
-        <v>1.019e-05</v>
+        <v>0.6666667803</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11443,7 +11443,7 @@
         <v>0.8224544249847785</v>
       </c>
       <c r="C1006">
-        <v>8.17e-06</v>
+        <v>1.0000001127</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11454,7 +11454,7 @@
         <v>0.8241168535033367</v>
       </c>
       <c r="C1007">
-        <v>7.45e-06</v>
+        <v>0.6666667808</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11465,7 +11465,7 @@
         <v>0.8213053496173729</v>
       </c>
       <c r="C1008">
-        <v>6.74e-06</v>
+        <v>0.6666667803</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11476,7 +11476,7 @@
         <v>0.8369536668934972</v>
       </c>
       <c r="C1009">
-        <v>6.31e-06</v>
+        <v>0.6666667821</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11487,7 +11487,7 @@
         <v>0.8838269880496162</v>
       </c>
       <c r="C1010">
-        <v>6.04e-06</v>
+        <v>0.6666667922</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11498,7 +11498,7 @@
         <v>0.8779293960340484</v>
       </c>
       <c r="C1011">
-        <v>5.99e-06</v>
+        <v>0.6666667887</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11509,7 +11509,7 @@
         <v>0.8816004679870588</v>
       </c>
       <c r="C1012">
-        <v>5.82e-06</v>
+        <v>0.6666667907</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11520,7 +11520,7 @@
         <v>0.8777592731874455</v>
       </c>
       <c r="C1013">
-        <v>5.48e-06</v>
+        <v>0.6666667903</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11531,7 +11531,7 @@
         <v>0.8935926363668923</v>
       </c>
       <c r="C1014">
-        <v>5.34e-06</v>
+        <v>0.6666667943</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11542,7 +11542,7 @@
         <v>0.9036149612597447</v>
       </c>
       <c r="C1015">
-        <v>5.45e-06</v>
+        <v>0.6666667965999999</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11553,7 +11553,7 @@
         <v>0.9115749197139549</v>
       </c>
       <c r="C1016">
-        <v>5.77e-06</v>
+        <v>0.6666667973</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11564,7 +11564,7 @@
         <v>0.925856284994568</v>
       </c>
       <c r="C1017">
-        <v>5.68e-06</v>
+        <v>0.6666667975</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11575,7 +11575,7 @@
         <v>0.9271456370951375</v>
       </c>
       <c r="C1018">
-        <v>5.31e-06</v>
+        <v>1.0000001274</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11586,7 +11586,7 @@
         <v>0.8863877845826917</v>
       </c>
       <c r="C1019">
-        <v>4.880000000000001e-06</v>
+        <v>1.000000123</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11597,7 +11597,7 @@
         <v>0.9034388691904539</v>
       </c>
       <c r="C1020">
-        <v>5.08e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11608,7 +11608,7 @@
         <v>0.9133835941883648</v>
       </c>
       <c r="C1021">
-        <v>5.11e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11619,7 +11619,7 @@
         <v>0.9034269307450783</v>
       </c>
       <c r="C1022">
-        <v>4.98e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11630,7 +11630,7 @@
         <v>0.8926047300120579</v>
       </c>
       <c r="C1023">
-        <v>4.94e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11641,7 +11641,7 @@
         <v>0.9018749328462448</v>
       </c>
       <c r="C1024">
-        <v>5.32e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11652,7 +11652,7 @@
         <v>0.9241610257512267</v>
       </c>
       <c r="C1025">
-        <v>5.77e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11663,7 +11663,7 @@
         <v>0.9225373971801392</v>
       </c>
       <c r="C1026">
-        <v>6.02e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11674,7 +11674,7 @@
         <v>0.9224359203944462</v>
       </c>
       <c r="C1027">
-        <v>5.8e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11685,7 +11685,7 @@
         <v>0.9256652698685577</v>
       </c>
       <c r="C1028">
-        <v>6.08e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11696,7 +11696,7 @@
         <v>0.9264681303200698</v>
       </c>
       <c r="C1029">
-        <v>5.8e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11707,7 +11707,7 @@
         <v>0.908226185786087</v>
       </c>
       <c r="C1030">
-        <v>5.66e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11718,7 +11718,7 @@
         <v>0.8945178658835047</v>
       </c>
       <c r="C1031">
-        <v>5.38e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11729,7 +11729,7 @@
         <v>0.902164440146604</v>
       </c>
       <c r="C1032">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11740,7 +11740,7 @@
         <v>0.8938731898332199</v>
       </c>
       <c r="C1033">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11751,7 +11751,7 @@
         <v>0.9224717357305733</v>
       </c>
       <c r="C1034">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11762,7 +11762,7 @@
         <v>0.9462292420281031</v>
       </c>
       <c r="C1035">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11773,7 +11773,7 @@
         <v>0.9481573009562695</v>
       </c>
       <c r="C1036">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11784,7 +11784,7 @@
         <v>0.9599405465420293</v>
       </c>
       <c r="C1037">
-        <v>5.42e-06</v>
+        <v>0.6666668011</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11795,7 +11795,7 @@
         <v>0.9689749650800473</v>
       </c>
       <c r="C1038">
-        <v>5.42e-06</v>
+        <v>0.6666668053</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11806,7 +11806,7 @@
         <v>0.968449673483519</v>
       </c>
       <c r="C1039">
-        <v>5.42e-06</v>
+        <v>0.6666668063</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11817,7 +11817,7 @@
         <v>0.9669125986414049</v>
       </c>
       <c r="C1040">
-        <v>5.42e-06</v>
+        <v>0.6666668048</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11828,7 +11828,7 @@
         <v>0.9675901054164726</v>
       </c>
       <c r="C1041">
-        <v>5.42e-06</v>
+        <v>0.666666804</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11839,7 +11839,7 @@
         <v>0.9520790802621683</v>
       </c>
       <c r="C1042">
-        <v>5.42e-06</v>
+        <v>1.0000001354</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -11850,7 +11850,7 @@
         <v>0.9516821269534281</v>
       </c>
       <c r="C1043">
-        <v>5.42e-06</v>
+        <v>1.0000001342</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11861,7 +11861,7 @@
         <v>0.9484468082566289</v>
       </c>
       <c r="C1044">
-        <v>5.42e-06</v>
+        <v>1.0000001369</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11872,7 +11872,7 @@
         <v>0.9710731468548165</v>
       </c>
       <c r="C1045">
-        <v>5.42e-06</v>
+        <v>0.6666668125</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
@@ -11883,7 +11883,7 @@
         <v>0.9739144968542196</v>
       </c>
       <c r="C1046">
-        <v>5.42e-06</v>
+        <v>0.6666668102</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
@@ -11894,7 +11894,7 @@
         <v>0.9700583789978868</v>
       </c>
       <c r="C1047">
-        <v>5.42e-06</v>
+        <v>0.6666668101</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -11905,7 +11905,7 @@
         <v>0.9762066783663432</v>
       </c>
       <c r="C1048">
-        <v>5.42e-06</v>
+        <v>0.6666668140000001</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11916,7 +11916,7 @@
         <v>0.9595644855126966</v>
       </c>
       <c r="C1049">
-        <v>5.42e-06</v>
+        <v>1.0000001415</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11927,7 +11927,7 @@
         <v>0.9546547998519633</v>
       </c>
       <c r="C1050">
-        <v>5.42e-06</v>
+        <v>1.0000001407</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11938,7 +11938,7 @@
         <v>0.9555561524778243</v>
       </c>
       <c r="C1051">
-        <v>5.42e-06</v>
+        <v>0.6666668111</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11949,7 +11949,7 @@
         <v>0.9323418454448862</v>
       </c>
       <c r="C1052">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -11960,7 +11960,7 @@
         <v>0.9211704451846281</v>
       </c>
       <c r="C1053">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -11971,7 +11971,7 @@
         <v>0.9140372240726813</v>
       </c>
       <c r="C1054">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -11982,7 +11982,7 @@
         <v>0.918764848441436</v>
       </c>
       <c r="C1055">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -11993,7 +11993,7 @@
         <v>0.8674653486622972</v>
       </c>
       <c r="C1056">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12004,7 +12004,7 @@
         <v>0.8734136790707113</v>
       </c>
       <c r="C1057">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12015,7 +12015,7 @@
         <v>0.8636748922555305</v>
       </c>
       <c r="C1058">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12026,7 +12026,7 @@
         <v>0.850898964936786</v>
       </c>
       <c r="C1059">
-        <v>5.42e-06</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
